--- a/Crescimento vegetal.xlsx
+++ b/Crescimento vegetal.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="77">
   <si>
     <t xml:space="preserve">NOME</t>
   </si>
@@ -245,13 +245,13 @@
     <t xml:space="preserve">id</t>
   </si>
   <si>
-    <t xml:space="preserve">group</t>
-  </si>
-  <si>
     <t xml:space="preserve">colonyLength</t>
   </si>
   <si>
     <t xml:space="preserve">rootLength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -662,10 +662,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -676,10 +672,6 @@
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -6746,21 +6738,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F466"/>
+  <dimension ref="A1:E466"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="43" width="5.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="43" width="11.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="43" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="43" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="43" width="10.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="43" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="43" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="5" style="43" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6776,24 +6768,18 @@
       <c r="D1" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="44" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="46" t="n">
+      <c r="B2" s="45" t="n">
         <v>16.5</v>
       </c>
-      <c r="D2" s="46" t="n">
+      <c r="C2" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="D2" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6801,14 +6787,13 @@
       <c r="A3" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="43" t="s">
+      <c r="B3" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6816,14 +6801,13 @@
       <c r="A4" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="43" t="s">
+      <c r="B4" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6831,14 +6815,13 @@
       <c r="A5" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46" t="n">
+      <c r="B5" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="D5" s="46" t="n">
+      <c r="C5" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="D5" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6846,16 +6829,13 @@
       <c r="A6" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="46" t="n">
+      <c r="B6" s="45" t="n">
         <v>5.5</v>
       </c>
-      <c r="D6" s="46" t="n">
+      <c r="C6" s="45" t="n">
         <v>6.5</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="D6" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6863,14 +6843,13 @@
       <c r="A7" s="43" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46" t="n">
+      <c r="B7" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="D7" s="46" t="n">
+      <c r="C7" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="D7" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6878,14 +6857,13 @@
       <c r="A8" s="43" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46" t="n">
+      <c r="B8" s="45" t="n">
         <v>16.5</v>
       </c>
-      <c r="D8" s="46" t="n">
+      <c r="C8" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="D8" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6893,14 +6871,13 @@
       <c r="A9" s="43" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="43" t="s">
+      <c r="B9" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6908,31 +6885,28 @@
       <c r="A10" s="43" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="45" t="n">
+        <v>14</v>
+      </c>
+      <c r="C10" s="45" t="n">
+        <v>13</v>
+      </c>
+      <c r="D10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="46" t="n">
-        <v>14</v>
-      </c>
-      <c r="D10" s="46" t="n">
-        <v>13</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="47"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="43" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="46" t="n">
+      <c r="B11" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="D11" s="46" t="n">
+      <c r="C11" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="D11" s="43" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6940,13 +6914,13 @@
       <c r="A12" s="43" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="46" t="n">
+      <c r="B12" s="45" t="n">
         <v>1.5</v>
       </c>
-      <c r="D12" s="46" t="n">
+      <c r="C12" s="45" t="n">
         <v>6</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="D12" s="43" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6954,16 +6928,13 @@
       <c r="A13" s="43" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="46" t="n">
+      <c r="B13" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D13" s="46" t="n">
+      <c r="C13" s="45" t="n">
         <v>7.5</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="D13" s="43" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6971,13 +6942,13 @@
       <c r="A14" s="43" t="n">
         <v>13</v>
       </c>
-      <c r="C14" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="43" t="s">
+      <c r="B14" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="43" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6985,13 +6956,13 @@
       <c r="A15" s="43" t="n">
         <v>14</v>
       </c>
-      <c r="C15" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="43" t="s">
+      <c r="B15" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="43" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6999,16 +6970,13 @@
       <c r="A16" s="43" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="46" t="n">
+      <c r="B16" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="D16" s="46" t="n">
+      <c r="C16" s="45" t="n">
         <v>18</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="D16" s="43" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7016,13 +6984,13 @@
       <c r="A17" s="43" t="n">
         <v>16</v>
       </c>
-      <c r="C17" s="46" t="n">
+      <c r="B17" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="D17" s="46" t="n">
+      <c r="C17" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="D17" s="43" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7030,13 +6998,13 @@
       <c r="A18" s="43" t="n">
         <v>17</v>
       </c>
-      <c r="C18" s="46" t="n">
+      <c r="B18" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="D18" s="46" t="n">
+      <c r="C18" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="D18" s="43" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7044,16 +7012,13 @@
       <c r="A19" s="43" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="43" t="s">
+      <c r="B19" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7061,13 +7026,13 @@
       <c r="A20" s="43" t="n">
         <v>19</v>
       </c>
-      <c r="C20" s="46" t="n">
+      <c r="B20" s="45" t="n">
         <v>3.5</v>
       </c>
-      <c r="D20" s="46" t="n">
+      <c r="C20" s="45" t="n">
         <v>3.5</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="D20" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7075,13 +7040,13 @@
       <c r="A21" s="43" t="n">
         <v>20</v>
       </c>
-      <c r="C21" s="46" t="n">
+      <c r="B21" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="D21" s="46" t="n">
+      <c r="C21" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="D21" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7089,16 +7054,13 @@
       <c r="A22" s="43" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="46" t="n">
+      <c r="B22" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D22" s="46" t="n">
+      <c r="C22" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="D22" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7106,13 +7068,13 @@
       <c r="A23" s="43" t="n">
         <v>22</v>
       </c>
-      <c r="C23" s="46" t="n">
+      <c r="B23" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D23" s="46" t="n">
+      <c r="C23" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="D23" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7120,13 +7082,13 @@
       <c r="A24" s="43" t="n">
         <v>23</v>
       </c>
-      <c r="C24" s="46" t="n">
+      <c r="B24" s="45" t="n">
         <v>5.5</v>
       </c>
-      <c r="D24" s="46" t="n">
+      <c r="C24" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="D24" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7134,16 +7096,13 @@
       <c r="A25" s="43" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="46" t="n">
+      <c r="B25" s="45" t="n">
         <v>18.5</v>
       </c>
-      <c r="D25" s="46" t="n">
+      <c r="C25" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="D25" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7151,13 +7110,13 @@
       <c r="A26" s="43" t="n">
         <v>25</v>
       </c>
-      <c r="C26" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="43" t="s">
+      <c r="B26" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7165,13 +7124,13 @@
       <c r="A27" s="43" t="n">
         <v>26</v>
       </c>
-      <c r="C27" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="43" t="s">
+      <c r="B27" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7179,16 +7138,13 @@
       <c r="A28" s="43" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="43" t="s">
+      <c r="B28" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7196,13 +7152,13 @@
       <c r="A29" s="43" t="n">
         <v>28</v>
       </c>
-      <c r="C29" s="46" t="n">
+      <c r="B29" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="D29" s="46" t="n">
+      <c r="C29" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="D29" s="43" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7210,13 +7166,13 @@
       <c r="A30" s="43" t="n">
         <v>29</v>
       </c>
-      <c r="C30" s="46" t="n">
+      <c r="B30" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D30" s="46" t="n">
+      <c r="C30" s="45" t="n">
         <v>6.5</v>
       </c>
-      <c r="E30" s="43" t="s">
+      <c r="D30" s="43" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7224,16 +7180,13 @@
       <c r="A31" s="43" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="46" t="n">
+      <c r="B31" s="45" t="n">
         <v>18.5</v>
       </c>
-      <c r="D31" s="46" t="n">
+      <c r="C31" s="45" t="n">
         <v>16.5</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="D31" s="43" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7241,13 +7194,13 @@
       <c r="A32" s="43" t="n">
         <v>31</v>
       </c>
-      <c r="C32" s="46" t="n">
+      <c r="B32" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="D32" s="46" t="n">
+      <c r="C32" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="E32" s="43" t="s">
+      <c r="D32" s="43" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7255,13 +7208,13 @@
       <c r="A33" s="43" t="n">
         <v>32</v>
       </c>
-      <c r="C33" s="46" t="n">
+      <c r="B33" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="D33" s="46" t="n">
+      <c r="C33" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="D33" s="43" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7269,16 +7222,13 @@
       <c r="A34" s="43" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="46" t="n">
+      <c r="B34" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="D34" s="46" t="n">
+      <c r="C34" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="D34" s="43" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7286,13 +7236,13 @@
       <c r="A35" s="43" t="n">
         <v>34</v>
       </c>
-      <c r="C35" s="46" t="n">
+      <c r="B35" s="45" t="n">
         <v>9.5</v>
       </c>
-      <c r="D35" s="46" t="n">
+      <c r="C35" s="45" t="n">
         <v>7.5</v>
       </c>
-      <c r="E35" s="43" t="s">
+      <c r="D35" s="43" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7300,13 +7250,13 @@
       <c r="A36" s="43" t="n">
         <v>35</v>
       </c>
-      <c r="C36" s="46" t="n">
+      <c r="B36" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="D36" s="46" t="n">
+      <c r="C36" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="D36" s="43" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7314,16 +7264,13 @@
       <c r="A37" s="43" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="46" t="n">
+      <c r="B37" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="D37" s="46" t="n">
+      <c r="C37" s="45" t="n">
         <v>1.5</v>
       </c>
-      <c r="E37" s="43" t="s">
+      <c r="D37" s="43" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7331,13 +7278,13 @@
       <c r="A38" s="43" t="n">
         <v>37</v>
       </c>
-      <c r="C38" s="46" t="n">
+      <c r="B38" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="D38" s="46" t="n">
+      <c r="C38" s="45" t="n">
         <v>7.5</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="D38" s="43" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7345,13 +7292,13 @@
       <c r="A39" s="43" t="n">
         <v>38</v>
       </c>
-      <c r="C39" s="46" t="n">
+      <c r="B39" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="D39" s="46" t="n">
+      <c r="C39" s="45" t="n">
         <v>7.5</v>
       </c>
-      <c r="E39" s="43" t="s">
+      <c r="D39" s="43" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7359,16 +7306,13 @@
       <c r="A40" s="43" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="46" t="n">
+      <c r="B40" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="D40" s="46" t="n">
+      <c r="C40" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="D40" s="43" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7376,13 +7320,13 @@
       <c r="A41" s="43" t="n">
         <v>40</v>
       </c>
-      <c r="C41" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="43" t="s">
+      <c r="B41" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="43" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7390,13 +7334,13 @@
       <c r="A42" s="43" t="n">
         <v>41</v>
       </c>
-      <c r="C42" s="46" t="n">
+      <c r="B42" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="D42" s="46" t="n">
+      <c r="C42" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="D42" s="43" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7404,16 +7348,13 @@
       <c r="A43" s="43" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="46" t="n">
+      <c r="B43" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D43" s="46" t="n">
+      <c r="C43" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="D43" s="43" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7421,13 +7362,13 @@
       <c r="A44" s="43" t="n">
         <v>43</v>
       </c>
-      <c r="C44" s="46" t="n">
+      <c r="B44" s="45" t="n">
         <v>17.5</v>
       </c>
-      <c r="D44" s="46" t="n">
+      <c r="C44" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E44" s="43" t="s">
+      <c r="D44" s="43" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7435,13 +7376,13 @@
       <c r="A45" s="43" t="n">
         <v>44</v>
       </c>
-      <c r="C45" s="46" t="n">
+      <c r="B45" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D45" s="46" t="n">
+      <c r="C45" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="D45" s="43" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7449,16 +7390,13 @@
       <c r="A46" s="43" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="46" t="n">
+      <c r="B46" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="D46" s="46" t="n">
+      <c r="C46" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="E46" s="43" t="s">
+      <c r="D46" s="43" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7466,13 +7404,13 @@
       <c r="A47" s="43" t="n">
         <v>46</v>
       </c>
-      <c r="C47" s="46" t="n">
+      <c r="B47" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D47" s="46" t="n">
+      <c r="C47" s="45" t="n">
         <v>7.5</v>
       </c>
-      <c r="E47" s="43" t="s">
+      <c r="D47" s="43" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7480,13 +7418,13 @@
       <c r="A48" s="43" t="n">
         <v>47</v>
       </c>
-      <c r="C48" s="46" t="n">
+      <c r="B48" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="D48" s="46" t="n">
+      <c r="C48" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="D48" s="43" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7494,16 +7432,13 @@
       <c r="A49" s="43" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="46" t="n">
+      <c r="B49" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="D49" s="46" t="n">
+      <c r="C49" s="45" t="n">
         <v>7.5</v>
       </c>
-      <c r="E49" s="43" t="s">
+      <c r="D49" s="43" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7511,13 +7446,13 @@
       <c r="A50" s="43" t="n">
         <v>49</v>
       </c>
-      <c r="C50" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="43" t="s">
+      <c r="B50" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="43" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7525,13 +7460,13 @@
       <c r="A51" s="43" t="n">
         <v>50</v>
       </c>
-      <c r="C51" s="46" t="n">
+      <c r="B51" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="D51" s="46" t="n">
+      <c r="C51" s="45" t="n">
         <v>6</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="D51" s="43" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7539,16 +7474,13 @@
       <c r="A52" s="43" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="46" t="n">
+      <c r="B52" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="D52" s="46" t="n">
+      <c r="C52" s="45" t="n">
         <v>8.5</v>
       </c>
-      <c r="E52" s="43" t="s">
+      <c r="D52" s="43" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7556,13 +7488,13 @@
       <c r="A53" s="43" t="n">
         <v>52</v>
       </c>
-      <c r="C53" s="46" t="n">
+      <c r="B53" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="D53" s="46" t="n">
+      <c r="C53" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="E53" s="43" t="s">
+      <c r="D53" s="43" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7570,13 +7502,13 @@
       <c r="A54" s="43" t="n">
         <v>53</v>
       </c>
-      <c r="C54" s="46" t="n">
+      <c r="B54" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="D54" s="46" t="n">
+      <c r="C54" s="45" t="n">
         <v>8.5</v>
       </c>
-      <c r="E54" s="43" t="s">
+      <c r="D54" s="43" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7584,16 +7516,13 @@
       <c r="A55" s="43" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="46" t="n">
+      <c r="B55" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="D55" s="46" t="n">
+      <c r="C55" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="E55" s="43" t="s">
+      <c r="D55" s="43" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7601,13 +7530,13 @@
       <c r="A56" s="43" t="n">
         <v>55</v>
       </c>
-      <c r="C56" s="46" t="n">
+      <c r="B56" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="D56" s="46" t="n">
+      <c r="C56" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="E56" s="43" t="s">
+      <c r="D56" s="43" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7615,13 +7544,13 @@
       <c r="A57" s="43" t="n">
         <v>56</v>
       </c>
-      <c r="C57" s="46" t="n">
+      <c r="B57" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D57" s="46" t="n">
+      <c r="C57" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="E57" s="43" t="s">
+      <c r="D57" s="43" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7629,16 +7558,13 @@
       <c r="A58" s="43" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C58" s="46" t="n">
+      <c r="B58" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D58" s="46" t="n">
+      <c r="C58" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="E58" s="43" t="s">
+      <c r="D58" s="43" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7646,13 +7572,13 @@
       <c r="A59" s="43" t="n">
         <v>58</v>
       </c>
-      <c r="C59" s="46" t="n">
+      <c r="B59" s="45" t="n">
         <v>7.5</v>
       </c>
-      <c r="D59" s="46" t="n">
+      <c r="C59" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E59" s="43" t="s">
+      <c r="D59" s="43" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7660,13 +7586,13 @@
       <c r="A60" s="43" t="n">
         <v>59</v>
       </c>
-      <c r="C60" s="46" t="n">
+      <c r="B60" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="D60" s="46" t="n">
+      <c r="C60" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="E60" s="43" t="s">
+      <c r="D60" s="43" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7674,16 +7600,13 @@
       <c r="A61" s="43" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" s="46" t="n">
+      <c r="B61" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D61" s="46" t="n">
+      <c r="C61" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E61" s="43" t="s">
+      <c r="D61" s="43" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7691,13 +7614,13 @@
       <c r="A62" s="43" t="n">
         <v>61</v>
       </c>
-      <c r="C62" s="46" t="n">
+      <c r="B62" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="D62" s="46" t="n">
+      <c r="C62" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E62" s="43" t="s">
+      <c r="D62" s="43" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7705,13 +7628,13 @@
       <c r="A63" s="43" t="n">
         <v>62</v>
       </c>
-      <c r="C63" s="46" t="n">
+      <c r="B63" s="45" t="n">
         <v>8.5</v>
       </c>
-      <c r="D63" s="46" t="n">
+      <c r="C63" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="D63" s="43" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7719,16 +7642,13 @@
       <c r="A64" s="43" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" s="43" t="s">
+      <c r="B64" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" s="43" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7736,13 +7656,13 @@
       <c r="A65" s="43" t="n">
         <v>64</v>
       </c>
-      <c r="C65" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="43" t="s">
+      <c r="B65" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" s="43" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7750,13 +7670,13 @@
       <c r="A66" s="43" t="n">
         <v>65</v>
       </c>
-      <c r="C66" s="46" t="n">
+      <c r="B66" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="D66" s="46" t="n">
+      <c r="C66" s="45" t="n">
         <v>6</v>
       </c>
-      <c r="E66" s="43" t="s">
+      <c r="D66" s="43" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7764,16 +7684,13 @@
       <c r="A67" s="43" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" s="43" t="s">
+      <c r="B67" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" s="43" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7781,13 +7698,13 @@
       <c r="A68" s="43" t="n">
         <v>67</v>
       </c>
-      <c r="C68" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" s="43" t="s">
+      <c r="B68" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" s="43" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7795,13 +7712,13 @@
       <c r="A69" s="43" t="n">
         <v>68</v>
       </c>
-      <c r="C69" s="46" t="n">
+      <c r="B69" s="45" t="n">
         <v>16.5</v>
       </c>
-      <c r="D69" s="46" t="n">
+      <c r="C69" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="E69" s="43" t="s">
+      <c r="D69" s="43" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7809,16 +7726,13 @@
       <c r="A70" s="43" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C70" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" s="43" t="s">
+      <c r="B70" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" s="43" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7826,13 +7740,13 @@
       <c r="A71" s="43" t="n">
         <v>70</v>
       </c>
-      <c r="C71" s="46" t="n">
+      <c r="B71" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="D71" s="46" t="n">
+      <c r="C71" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E71" s="43" t="s">
+      <c r="D71" s="43" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7840,13 +7754,13 @@
       <c r="A72" s="43" t="n">
         <v>71</v>
       </c>
-      <c r="C72" s="46" t="n">
+      <c r="B72" s="45" t="n">
         <v>9.5</v>
       </c>
-      <c r="D72" s="46" t="n">
+      <c r="C72" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E72" s="43" t="s">
+      <c r="D72" s="43" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7854,16 +7768,13 @@
       <c r="A73" s="43" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="46" t="n">
+      <c r="B73" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="D73" s="46" t="n">
+      <c r="C73" s="45" t="n">
         <v>18</v>
       </c>
-      <c r="E73" s="43" t="s">
+      <c r="D73" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7871,13 +7782,13 @@
       <c r="A74" s="43" t="n">
         <v>73</v>
       </c>
-      <c r="C74" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" s="43" t="s">
+      <c r="B74" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7885,13 +7796,13 @@
       <c r="A75" s="43" t="n">
         <v>74</v>
       </c>
-      <c r="C75" s="46" t="n">
+      <c r="B75" s="45" t="n">
         <v>20.5</v>
       </c>
-      <c r="D75" s="46" t="n">
+      <c r="C75" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="E75" s="43" t="s">
+      <c r="D75" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7899,16 +7810,13 @@
       <c r="A76" s="43" t="n">
         <v>75</v>
       </c>
-      <c r="B76" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" s="43" t="s">
+      <c r="B76" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7916,13 +7824,13 @@
       <c r="A77" s="43" t="n">
         <v>76</v>
       </c>
-      <c r="C77" s="46" t="n">
+      <c r="B77" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D77" s="46" t="n">
+      <c r="C77" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="E77" s="43" t="s">
+      <c r="D77" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7930,13 +7838,13 @@
       <c r="A78" s="43" t="n">
         <v>77</v>
       </c>
-      <c r="C78" s="46" t="n">
+      <c r="B78" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="D78" s="46" t="n">
+      <c r="C78" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="E78" s="43" t="s">
+      <c r="D78" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7944,16 +7852,13 @@
       <c r="A79" s="43" t="n">
         <v>78</v>
       </c>
-      <c r="B79" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" s="43" t="s">
+      <c r="B79" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7961,13 +7866,13 @@
       <c r="A80" s="43" t="n">
         <v>79</v>
       </c>
-      <c r="C80" s="46" t="n">
+      <c r="B80" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="D80" s="46" t="n">
+      <c r="C80" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="E80" s="43" t="s">
+      <c r="D80" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7975,13 +7880,13 @@
       <c r="A81" s="43" t="n">
         <v>80</v>
       </c>
-      <c r="C81" s="46" t="n">
+      <c r="B81" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="D81" s="46" t="n">
+      <c r="C81" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E81" s="43" t="s">
+      <c r="D81" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7989,16 +7894,13 @@
       <c r="A82" s="43" t="n">
         <v>81</v>
       </c>
-      <c r="B82" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C82" s="46" t="n">
+      <c r="B82" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D82" s="46" t="n">
+      <c r="C82" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="E82" s="43" t="s">
+      <c r="D82" s="43" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8006,13 +7908,13 @@
       <c r="A83" s="43" t="n">
         <v>82</v>
       </c>
-      <c r="C83" s="46" t="n">
+      <c r="B83" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="D83" s="46" t="n">
+      <c r="C83" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="E83" s="43" t="s">
+      <c r="D83" s="43" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8020,13 +7922,13 @@
       <c r="A84" s="43" t="n">
         <v>83</v>
       </c>
-      <c r="C84" s="46" t="n">
+      <c r="B84" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="D84" s="46" t="n">
+      <c r="C84" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="E84" s="43" t="s">
+      <c r="D84" s="43" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8034,16 +7936,13 @@
       <c r="A85" s="43" t="n">
         <v>84</v>
       </c>
-      <c r="B85" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C85" s="46" t="n">
+      <c r="B85" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="D85" s="46" t="n">
+      <c r="C85" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="E85" s="43" t="s">
+      <c r="D85" s="43" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8051,13 +7950,13 @@
       <c r="A86" s="43" t="n">
         <v>85</v>
       </c>
-      <c r="C86" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" s="43" t="s">
+      <c r="B86" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" s="43" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8065,13 +7964,13 @@
       <c r="A87" s="43" t="n">
         <v>86</v>
       </c>
-      <c r="C87" s="46" t="n">
+      <c r="B87" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D87" s="46" t="n">
+      <c r="C87" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="E87" s="43" t="s">
+      <c r="D87" s="43" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8079,16 +7978,13 @@
       <c r="A88" s="43" t="n">
         <v>87</v>
       </c>
-      <c r="B88" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C88" s="46" t="n">
+      <c r="B88" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="D88" s="46" t="n">
+      <c r="C88" s="45" t="n">
         <v>18.5</v>
       </c>
-      <c r="E88" s="43" t="s">
+      <c r="D88" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8096,13 +7992,13 @@
       <c r="A89" s="43" t="n">
         <v>88</v>
       </c>
-      <c r="C89" s="46" t="n">
+      <c r="B89" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D89" s="46" t="n">
+      <c r="C89" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="E89" s="43" t="s">
+      <c r="D89" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8110,13 +8006,13 @@
       <c r="A90" s="43" t="n">
         <v>89</v>
       </c>
-      <c r="C90" s="46" t="n">
+      <c r="B90" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D90" s="46" t="n">
+      <c r="C90" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E90" s="43" t="s">
+      <c r="D90" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8124,16 +8020,13 @@
       <c r="A91" s="43" t="n">
         <v>90</v>
       </c>
-      <c r="B91" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C91" s="46" t="n">
+      <c r="B91" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="D91" s="46" t="n">
+      <c r="C91" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E91" s="43" t="s">
+      <c r="D91" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8141,13 +8034,13 @@
       <c r="A92" s="43" t="n">
         <v>91</v>
       </c>
-      <c r="C92" s="46" t="n">
+      <c r="B92" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="D92" s="46" t="n">
+      <c r="C92" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E92" s="43" t="s">
+      <c r="D92" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8155,13 +8048,13 @@
       <c r="A93" s="43" t="n">
         <v>92</v>
       </c>
-      <c r="C93" s="46" t="n">
+      <c r="B93" s="45" t="n">
         <v>18.5</v>
       </c>
-      <c r="D93" s="46" t="n">
+      <c r="C93" s="45" t="n">
         <v>22.5</v>
       </c>
-      <c r="E93" s="43" t="s">
+      <c r="D93" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8169,16 +8062,13 @@
       <c r="A94" s="43" t="n">
         <v>93</v>
       </c>
-      <c r="B94" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C94" s="46" t="n">
+      <c r="B94" s="45" t="n">
         <v>17.5</v>
       </c>
-      <c r="D94" s="46" t="n">
+      <c r="C94" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E94" s="43" t="s">
+      <c r="D94" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8186,13 +8076,13 @@
       <c r="A95" s="43" t="n">
         <v>94</v>
       </c>
-      <c r="C95" s="46" t="n">
+      <c r="B95" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="D95" s="46" t="n">
+      <c r="C95" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="E95" s="43" t="s">
+      <c r="D95" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8200,13 +8090,13 @@
       <c r="A96" s="43" t="n">
         <v>95</v>
       </c>
-      <c r="C96" s="46" t="n">
+      <c r="B96" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="D96" s="46" t="n">
+      <c r="C96" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E96" s="43" t="s">
+      <c r="D96" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8214,16 +8104,13 @@
       <c r="A97" s="43" t="n">
         <v>96</v>
       </c>
-      <c r="B97" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C97" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" s="43" t="s">
+      <c r="B97" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" s="43" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8231,13 +8118,13 @@
       <c r="A98" s="43" t="n">
         <v>97</v>
       </c>
-      <c r="C98" s="46" t="n">
+      <c r="B98" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D98" s="46" t="n">
+      <c r="C98" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="E98" s="43" t="s">
+      <c r="D98" s="43" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8245,13 +8132,13 @@
       <c r="A99" s="43" t="n">
         <v>98</v>
       </c>
-      <c r="C99" s="46" t="n">
+      <c r="B99" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="D99" s="46" t="n">
+      <c r="C99" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E99" s="43" t="s">
+      <c r="D99" s="43" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8259,16 +8146,13 @@
       <c r="A100" s="43" t="n">
         <v>99</v>
       </c>
-      <c r="B100" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C100" s="46" t="n">
+      <c r="B100" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D100" s="46" t="n">
+      <c r="C100" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="E100" s="43" t="s">
+      <c r="D100" s="43" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8276,13 +8160,13 @@
       <c r="A101" s="43" t="n">
         <v>100</v>
       </c>
-      <c r="C101" s="46" t="n">
+      <c r="B101" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="D101" s="46" t="n">
+      <c r="C101" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E101" s="43" t="s">
+      <c r="D101" s="43" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8290,13 +8174,13 @@
       <c r="A102" s="43" t="n">
         <v>101</v>
       </c>
-      <c r="C102" s="46" t="n">
+      <c r="B102" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="D102" s="46" t="n">
+      <c r="C102" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E102" s="43" t="s">
+      <c r="D102" s="43" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8304,16 +8188,13 @@
       <c r="A103" s="43" t="n">
         <v>102</v>
       </c>
-      <c r="B103" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C103" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" s="43" t="s">
+      <c r="B103" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" s="43" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8321,13 +8202,13 @@
       <c r="A104" s="43" t="n">
         <v>103</v>
       </c>
-      <c r="C104" s="46" t="n">
+      <c r="B104" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="D104" s="46" t="n">
+      <c r="C104" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E104" s="43" t="s">
+      <c r="D104" s="43" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8335,13 +8216,13 @@
       <c r="A105" s="43" t="n">
         <v>104</v>
       </c>
-      <c r="C105" s="46" t="n">
+      <c r="B105" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D105" s="46" t="n">
+      <c r="C105" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E105" s="43" t="s">
+      <c r="D105" s="43" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8349,16 +8230,13 @@
       <c r="A106" s="43" t="n">
         <v>105</v>
       </c>
-      <c r="B106" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="C106" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D106" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" s="43" t="s">
+      <c r="B106" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8366,13 +8244,13 @@
       <c r="A107" s="43" t="n">
         <v>106</v>
       </c>
-      <c r="C107" s="46" t="n">
+      <c r="B107" s="45" t="n">
         <v>9.5</v>
       </c>
-      <c r="D107" s="46" t="n">
+      <c r="C107" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="E107" s="43" t="s">
+      <c r="D107" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8380,13 +8258,13 @@
       <c r="A108" s="43" t="n">
         <v>107</v>
       </c>
-      <c r="C108" s="46" t="n">
+      <c r="B108" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D108" s="46" t="n">
+      <c r="C108" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="E108" s="43" t="s">
+      <c r="D108" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8394,16 +8272,13 @@
       <c r="A109" s="43" t="n">
         <v>108</v>
       </c>
-      <c r="B109" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C109" s="46" t="n">
+      <c r="B109" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="D109" s="46" t="n">
+      <c r="C109" s="45" t="n">
         <v>7.5</v>
       </c>
-      <c r="E109" s="43" t="s">
+      <c r="D109" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8411,13 +8286,13 @@
       <c r="A110" s="43" t="n">
         <v>109</v>
       </c>
-      <c r="C110" s="46" t="n">
+      <c r="B110" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="D110" s="46" t="n">
+      <c r="C110" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E110" s="43" t="s">
+      <c r="D110" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8425,13 +8300,13 @@
       <c r="A111" s="43" t="n">
         <v>110</v>
       </c>
-      <c r="C111" s="46" t="n">
+      <c r="B111" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="D111" s="46" t="n">
+      <c r="C111" s="45" t="n">
         <v>6.5</v>
       </c>
-      <c r="E111" s="43" t="s">
+      <c r="D111" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8439,16 +8314,13 @@
       <c r="A112" s="43" t="n">
         <v>111</v>
       </c>
-      <c r="B112" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="C112" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" s="43" t="s">
+      <c r="B112" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8456,13 +8328,13 @@
       <c r="A113" s="43" t="n">
         <v>112</v>
       </c>
-      <c r="C113" s="46" t="n">
+      <c r="B113" s="45" t="n">
         <v>18</v>
       </c>
-      <c r="D113" s="46" t="n">
+      <c r="C113" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="E113" s="43" t="s">
+      <c r="D113" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8470,13 +8342,13 @@
       <c r="A114" s="43" t="n">
         <v>113</v>
       </c>
-      <c r="C114" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" s="43" t="s">
+      <c r="B114" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8484,16 +8356,13 @@
       <c r="A115" s="43" t="n">
         <v>114</v>
       </c>
-      <c r="B115" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C115" s="46" t="n">
+      <c r="B115" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D115" s="46" t="n">
+      <c r="C115" s="45" t="n">
         <v>7.5</v>
       </c>
-      <c r="E115" s="43" t="s">
+      <c r="D115" s="43" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8501,13 +8370,13 @@
       <c r="A116" s="43" t="n">
         <v>115</v>
       </c>
-      <c r="C116" s="46" t="n">
+      <c r="B116" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="D116" s="46" t="n">
+      <c r="C116" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="E116" s="43" t="s">
+      <c r="D116" s="43" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8515,13 +8384,13 @@
       <c r="A117" s="43" t="n">
         <v>116</v>
       </c>
-      <c r="C117" s="46" t="n">
+      <c r="B117" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="D117" s="46" t="n">
+      <c r="C117" s="45" t="n">
         <v>8.5</v>
       </c>
-      <c r="E117" s="43" t="s">
+      <c r="D117" s="43" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8529,16 +8398,13 @@
       <c r="A118" s="43" t="n">
         <v>117</v>
       </c>
-      <c r="B118" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C118" s="46" t="n">
+      <c r="B118" s="45" t="n">
         <v>8.5</v>
       </c>
-      <c r="D118" s="46" t="n">
+      <c r="C118" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="E118" s="43" t="s">
+      <c r="D118" s="43" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8546,13 +8412,13 @@
       <c r="A119" s="43" t="n">
         <v>118</v>
       </c>
-      <c r="C119" s="46" t="n">
+      <c r="B119" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="D119" s="46" t="n">
+      <c r="C119" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="E119" s="43" t="s">
+      <c r="D119" s="43" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8560,13 +8426,13 @@
       <c r="A120" s="43" t="n">
         <v>119</v>
       </c>
-      <c r="C120" s="46" t="n">
+      <c r="B120" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D120" s="46" t="n">
+      <c r="C120" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="E120" s="43" t="s">
+      <c r="D120" s="43" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8574,16 +8440,13 @@
       <c r="A121" s="43" t="n">
         <v>120</v>
       </c>
-      <c r="B121" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C121" s="46" t="n">
+      <c r="B121" s="45" t="n">
         <v>6</v>
       </c>
-      <c r="D121" s="46" t="n">
+      <c r="C121" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="E121" s="43" t="s">
+      <c r="D121" s="43" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8591,13 +8454,13 @@
       <c r="A122" s="43" t="n">
         <v>121</v>
       </c>
-      <c r="C122" s="46" t="n">
+      <c r="B122" s="45" t="n">
         <v>8.5</v>
       </c>
-      <c r="D122" s="46" t="n">
+      <c r="C122" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E122" s="43" t="s">
+      <c r="D122" s="43" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8605,13 +8468,13 @@
       <c r="A123" s="43" t="n">
         <v>122</v>
       </c>
-      <c r="C123" s="46" t="n">
+      <c r="B123" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="D123" s="46" t="n">
+      <c r="C123" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="E123" s="43" t="s">
+      <c r="D123" s="43" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8619,16 +8482,13 @@
       <c r="A124" s="43" t="n">
         <v>123</v>
       </c>
-      <c r="B124" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C124" s="46" t="n">
+      <c r="B124" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="D124" s="46" t="n">
+      <c r="C124" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E124" s="43" t="s">
+      <c r="D124" s="43" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8636,13 +8496,13 @@
       <c r="A125" s="43" t="n">
         <v>124</v>
       </c>
-      <c r="C125" s="46" t="n">
+      <c r="B125" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="D125" s="46" t="n">
+      <c r="C125" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E125" s="43" t="s">
+      <c r="D125" s="43" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8650,13 +8510,13 @@
       <c r="A126" s="43" t="n">
         <v>125</v>
       </c>
-      <c r="C126" s="46" t="n">
+      <c r="B126" s="45" t="n">
         <v>5.5</v>
       </c>
-      <c r="D126" s="46" t="n">
+      <c r="C126" s="45" t="n">
         <v>4.5</v>
       </c>
-      <c r="E126" s="43" t="s">
+      <c r="D126" s="43" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8664,16 +8524,13 @@
       <c r="A127" s="43" t="n">
         <v>126</v>
       </c>
-      <c r="B127" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C127" s="46" t="n">
+      <c r="B127" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D127" s="46" t="n">
+      <c r="C127" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="E127" s="43" t="s">
+      <c r="D127" s="43" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8681,13 +8538,13 @@
       <c r="A128" s="43" t="n">
         <v>127</v>
       </c>
-      <c r="C128" s="46" t="n">
+      <c r="B128" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="D128" s="46" t="n">
+      <c r="C128" s="45" t="n">
         <v>16.5</v>
       </c>
-      <c r="E128" s="43" t="s">
+      <c r="D128" s="43" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8695,13 +8552,13 @@
       <c r="A129" s="43" t="n">
         <v>128</v>
       </c>
-      <c r="C129" s="46" t="n">
+      <c r="B129" s="45" t="n">
         <v>6</v>
       </c>
-      <c r="D129" s="46" t="n">
+      <c r="C129" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="E129" s="43" t="s">
+      <c r="D129" s="43" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8709,16 +8566,13 @@
       <c r="A130" s="43" t="n">
         <v>129</v>
       </c>
-      <c r="B130" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C130" s="46" t="n">
+      <c r="B130" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="D130" s="46" t="n">
+      <c r="C130" s="45" t="n">
         <v>17.5</v>
       </c>
-      <c r="E130" s="43" t="s">
+      <c r="D130" s="43" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8726,13 +8580,13 @@
       <c r="A131" s="43" t="n">
         <v>130</v>
       </c>
-      <c r="C131" s="46" t="n">
+      <c r="B131" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="D131" s="46" t="n">
+      <c r="C131" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="E131" s="43" t="s">
+      <c r="D131" s="43" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8740,13 +8594,13 @@
       <c r="A132" s="43" t="n">
         <v>131</v>
       </c>
-      <c r="C132" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D132" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E132" s="43" t="s">
+      <c r="B132" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" s="43" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8754,16 +8608,13 @@
       <c r="A133" s="43" t="n">
         <v>132</v>
       </c>
-      <c r="B133" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C133" s="46" t="n">
+      <c r="B133" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D133" s="46" t="n">
+      <c r="C133" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="E133" s="43" t="s">
+      <c r="D133" s="43" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8771,13 +8622,13 @@
       <c r="A134" s="43" t="n">
         <v>133</v>
       </c>
-      <c r="C134" s="46" t="n">
+      <c r="B134" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D134" s="46" t="n">
+      <c r="C134" s="45" t="n">
         <v>9.5</v>
       </c>
-      <c r="E134" s="43" t="s">
+      <c r="D134" s="43" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8785,13 +8636,13 @@
       <c r="A135" s="43" t="n">
         <v>134</v>
       </c>
-      <c r="C135" s="46" t="n">
+      <c r="B135" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="D135" s="46" t="n">
+      <c r="C135" s="45" t="n">
         <v>9.5</v>
       </c>
-      <c r="E135" s="43" t="s">
+      <c r="D135" s="43" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8799,16 +8650,13 @@
       <c r="A136" s="43" t="n">
         <v>135</v>
       </c>
-      <c r="B136" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C136" s="46" t="n">
+      <c r="B136" s="45" t="n">
         <v>6.5</v>
       </c>
-      <c r="D136" s="46" t="n">
+      <c r="C136" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="E136" s="43" t="s">
+      <c r="D136" s="43" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8816,13 +8664,13 @@
       <c r="A137" s="43" t="n">
         <v>136</v>
       </c>
-      <c r="C137" s="46" t="n">
+      <c r="B137" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="D137" s="46" t="n">
+      <c r="C137" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="E137" s="43" t="s">
+      <c r="D137" s="43" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8830,13 +8678,13 @@
       <c r="A138" s="43" t="n">
         <v>137</v>
       </c>
-      <c r="C138" s="46" t="n">
+      <c r="B138" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="D138" s="46" t="n">
+      <c r="C138" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="E138" s="43" t="s">
+      <c r="D138" s="43" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8844,16 +8692,13 @@
       <c r="A139" s="43" t="n">
         <v>138</v>
       </c>
-      <c r="B139" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C139" s="46" t="n">
+      <c r="B139" s="45" t="n">
         <v>6.5</v>
       </c>
-      <c r="D139" s="46" t="n">
+      <c r="C139" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="E139" s="43" t="s">
+      <c r="D139" s="43" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8861,13 +8706,13 @@
       <c r="A140" s="43" t="n">
         <v>139</v>
       </c>
-      <c r="C140" s="46" t="n">
+      <c r="B140" s="45" t="n">
         <v>7.5</v>
       </c>
-      <c r="D140" s="46" t="n">
+      <c r="C140" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="E140" s="43" t="s">
+      <c r="D140" s="43" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8875,13 +8720,13 @@
       <c r="A141" s="43" t="n">
         <v>140</v>
       </c>
-      <c r="C141" s="46" t="n">
+      <c r="B141" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="D141" s="46" t="n">
+      <c r="C141" s="45" t="n">
         <v>6</v>
       </c>
-      <c r="E141" s="43" t="s">
+      <c r="D141" s="43" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8889,16 +8734,13 @@
       <c r="A142" s="43" t="n">
         <v>141</v>
       </c>
-      <c r="B142" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C142" s="46" t="n">
+      <c r="B142" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="D142" s="46" t="n">
+      <c r="C142" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="E142" s="43" t="s">
+      <c r="D142" s="43" t="s">
         <v>45</v>
       </c>
     </row>
@@ -8906,13 +8748,13 @@
       <c r="A143" s="43" t="n">
         <v>142</v>
       </c>
-      <c r="C143" s="46" t="n">
+      <c r="B143" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="D143" s="46" t="n">
+      <c r="C143" s="45" t="n">
         <v>10.5</v>
       </c>
-      <c r="E143" s="43" t="s">
+      <c r="D143" s="43" t="s">
         <v>45</v>
       </c>
     </row>
@@ -8920,13 +8762,13 @@
       <c r="A144" s="43" t="n">
         <v>143</v>
       </c>
-      <c r="C144" s="46" t="n">
+      <c r="B144" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="D144" s="46" t="n">
+      <c r="C144" s="45" t="n">
         <v>19.5</v>
       </c>
-      <c r="E144" s="43" t="s">
+      <c r="D144" s="43" t="s">
         <v>45</v>
       </c>
     </row>
@@ -8934,16 +8776,13 @@
       <c r="A145" s="43" t="n">
         <v>144</v>
       </c>
-      <c r="B145" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C145" s="46" t="n">
+      <c r="B145" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="D145" s="46" t="n">
+      <c r="C145" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="E145" s="43" t="s">
+      <c r="D145" s="43" t="s">
         <v>45</v>
       </c>
     </row>
@@ -8951,13 +8790,13 @@
       <c r="A146" s="43" t="n">
         <v>145</v>
       </c>
-      <c r="C146" s="46" t="n">
+      <c r="B146" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D146" s="46" t="n">
+      <c r="C146" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="E146" s="43" t="s">
+      <c r="D146" s="43" t="s">
         <v>45</v>
       </c>
     </row>
@@ -8965,13 +8804,13 @@
       <c r="A147" s="43" t="n">
         <v>146</v>
       </c>
-      <c r="C147" s="46" t="n">
+      <c r="B147" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D147" s="46" t="n">
+      <c r="C147" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E147" s="43" t="s">
+      <c r="D147" s="43" t="s">
         <v>45</v>
       </c>
     </row>
@@ -8979,16 +8818,13 @@
       <c r="A148" s="43" t="n">
         <v>147</v>
       </c>
-      <c r="B148" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C148" s="46" t="n">
+      <c r="B148" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="D148" s="46" t="n">
+      <c r="C148" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="E148" s="43" t="s">
+      <c r="D148" s="43" t="s">
         <v>45</v>
       </c>
     </row>
@@ -8996,13 +8832,13 @@
       <c r="A149" s="43" t="n">
         <v>148</v>
       </c>
-      <c r="C149" s="46" t="n">
+      <c r="B149" s="45" t="n">
         <v>5.5</v>
       </c>
-      <c r="D149" s="46" t="n">
+      <c r="C149" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="E149" s="43" t="s">
+      <c r="D149" s="43" t="s">
         <v>45</v>
       </c>
     </row>
@@ -9010,13 +8846,13 @@
       <c r="A150" s="43" t="n">
         <v>149</v>
       </c>
-      <c r="C150" s="46" t="n">
+      <c r="B150" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="D150" s="46" t="n">
+      <c r="C150" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E150" s="43" t="s">
+      <c r="D150" s="43" t="s">
         <v>45</v>
       </c>
     </row>
@@ -9024,16 +8860,13 @@
       <c r="A151" s="43" t="n">
         <v>150</v>
       </c>
-      <c r="B151" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C151" s="46" t="n">
+      <c r="B151" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="D151" s="46" t="n">
+      <c r="C151" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="E151" s="43" t="s">
+      <c r="D151" s="43" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9041,13 +8874,13 @@
       <c r="A152" s="43" t="n">
         <v>151</v>
       </c>
-      <c r="C152" s="46" t="n">
+      <c r="B152" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="D152" s="46" t="n">
+      <c r="C152" s="45" t="n">
         <v>6</v>
       </c>
-      <c r="E152" s="43" t="s">
+      <c r="D152" s="43" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9055,13 +8888,13 @@
       <c r="A153" s="43" t="n">
         <v>152</v>
       </c>
-      <c r="C153" s="46" t="n">
+      <c r="B153" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="D153" s="46" t="n">
+      <c r="C153" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="E153" s="43" t="s">
+      <c r="D153" s="43" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9069,16 +8902,13 @@
       <c r="A154" s="43" t="n">
         <v>153</v>
       </c>
-      <c r="B154" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C154" s="46" t="n">
+      <c r="B154" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D154" s="46" t="n">
+      <c r="C154" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E154" s="43" t="s">
+      <c r="D154" s="43" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9086,13 +8916,13 @@
       <c r="A155" s="43" t="n">
         <v>154</v>
       </c>
-      <c r="C155" s="46" t="n">
+      <c r="B155" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="D155" s="46" t="n">
+      <c r="C155" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="E155" s="43" t="s">
+      <c r="D155" s="43" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9100,13 +8930,13 @@
       <c r="A156" s="43" t="n">
         <v>155</v>
       </c>
-      <c r="C156" s="46" t="n">
+      <c r="B156" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="D156" s="46" t="n">
+      <c r="C156" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E156" s="43" t="s">
+      <c r="D156" s="43" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9114,16 +8944,13 @@
       <c r="A157" s="43" t="n">
         <v>156</v>
       </c>
-      <c r="B157" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C157" s="46" t="n">
+      <c r="B157" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="D157" s="46" t="n">
+      <c r="C157" s="45" t="n">
         <v>5.5</v>
       </c>
-      <c r="E157" s="43" t="s">
+      <c r="D157" s="43" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9131,13 +8958,13 @@
       <c r="A158" s="43" t="n">
         <v>157</v>
       </c>
-      <c r="C158" s="46" t="n">
+      <c r="B158" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="D158" s="46" t="n">
+      <c r="C158" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="E158" s="43" t="s">
+      <c r="D158" s="43" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9145,13 +8972,13 @@
       <c r="A159" s="43" t="n">
         <v>158</v>
       </c>
-      <c r="C159" s="46" t="n">
+      <c r="B159" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D159" s="46" t="n">
+      <c r="C159" s="45" t="n">
         <v>7.5</v>
       </c>
-      <c r="E159" s="43" t="s">
+      <c r="D159" s="43" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9159,16 +8986,13 @@
       <c r="A160" s="43" t="n">
         <v>159</v>
       </c>
-      <c r="B160" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C160" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D160" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E160" s="43" t="s">
+      <c r="B160" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" s="43" t="s">
         <v>48</v>
       </c>
     </row>
@@ -9176,13 +9000,13 @@
       <c r="A161" s="43" t="n">
         <v>160</v>
       </c>
-      <c r="C161" s="46" t="n">
+      <c r="B161" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="D161" s="46" t="n">
+      <c r="C161" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="E161" s="43" t="s">
+      <c r="D161" s="43" t="s">
         <v>48</v>
       </c>
     </row>
@@ -9190,13 +9014,13 @@
       <c r="A162" s="43" t="n">
         <v>161</v>
       </c>
-      <c r="C162" s="46" t="n">
+      <c r="B162" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="D162" s="46" t="n">
+      <c r="C162" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="E162" s="43" t="s">
+      <c r="D162" s="43" t="s">
         <v>48</v>
       </c>
     </row>
@@ -9204,16 +9028,13 @@
       <c r="A163" s="43" t="n">
         <v>162</v>
       </c>
-      <c r="B163" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C163" s="46" t="n">
+      <c r="B163" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="D163" s="46" t="n">
+      <c r="C163" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="E163" s="43" t="s">
+      <c r="D163" s="43" t="s">
         <v>48</v>
       </c>
     </row>
@@ -9221,13 +9042,13 @@
       <c r="A164" s="43" t="n">
         <v>163</v>
       </c>
-      <c r="C164" s="46" t="n">
+      <c r="B164" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D164" s="46" t="n">
+      <c r="C164" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="E164" s="43" t="s">
+      <c r="D164" s="43" t="s">
         <v>48</v>
       </c>
     </row>
@@ -9235,13 +9056,13 @@
       <c r="A165" s="43" t="n">
         <v>164</v>
       </c>
-      <c r="C165" s="46" t="n">
+      <c r="B165" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D165" s="46" t="n">
+      <c r="C165" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E165" s="43" t="s">
+      <c r="D165" s="43" t="s">
         <v>48</v>
       </c>
     </row>
@@ -9249,16 +9070,13 @@
       <c r="A166" s="43" t="n">
         <v>165</v>
       </c>
-      <c r="B166" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C166" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D166" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E166" s="43" t="s">
+      <c r="B166" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" s="43" t="s">
         <v>48</v>
       </c>
     </row>
@@ -9266,13 +9084,13 @@
       <c r="A167" s="43" t="n">
         <v>166</v>
       </c>
-      <c r="C167" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D167" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E167" s="43" t="s">
+      <c r="B167" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" s="43" t="s">
         <v>48</v>
       </c>
     </row>
@@ -9280,13 +9098,13 @@
       <c r="A168" s="43" t="n">
         <v>167</v>
       </c>
-      <c r="C168" s="46" t="n">
+      <c r="B168" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="D168" s="46" t="n">
+      <c r="C168" s="45" t="n">
         <v>5.5</v>
       </c>
-      <c r="E168" s="43" t="s">
+      <c r="D168" s="43" t="s">
         <v>48</v>
       </c>
     </row>
@@ -9294,16 +9112,13 @@
       <c r="A169" s="43" t="n">
         <v>168</v>
       </c>
-      <c r="B169" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C169" s="46" t="n">
+      <c r="B169" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="D169" s="46" t="n">
+      <c r="C169" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="E169" s="43" t="s">
+      <c r="D169" s="43" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9311,13 +9126,13 @@
       <c r="A170" s="43" t="n">
         <v>169</v>
       </c>
-      <c r="C170" s="46" t="n">
+      <c r="B170" s="45" t="n">
         <v>16.5</v>
       </c>
-      <c r="D170" s="46" t="n">
+      <c r="C170" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="E170" s="43" t="s">
+      <c r="D170" s="43" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9325,13 +9140,13 @@
       <c r="A171" s="43" t="n">
         <v>170</v>
       </c>
-      <c r="C171" s="46" t="n">
+      <c r="B171" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="D171" s="46" t="n">
+      <c r="C171" s="45" t="n">
         <v>7.5</v>
       </c>
-      <c r="E171" s="43" t="s">
+      <c r="D171" s="43" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9339,16 +9154,13 @@
       <c r="A172" s="43" t="n">
         <v>171</v>
       </c>
-      <c r="B172" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C172" s="46" t="n">
+      <c r="B172" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="D172" s="46" t="n">
+      <c r="C172" s="45" t="n">
         <v>8.5</v>
       </c>
-      <c r="E172" s="43" t="s">
+      <c r="D172" s="43" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9356,13 +9168,13 @@
       <c r="A173" s="43" t="n">
         <v>172</v>
       </c>
-      <c r="C173" s="46" t="n">
+      <c r="B173" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="D173" s="46" t="n">
+      <c r="C173" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E173" s="43" t="s">
+      <c r="D173" s="43" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9370,13 +9182,13 @@
       <c r="A174" s="43" t="n">
         <v>173</v>
       </c>
-      <c r="C174" s="46" t="n">
+      <c r="B174" s="45" t="n">
         <v>10.5</v>
       </c>
-      <c r="D174" s="46" t="n">
+      <c r="C174" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="E174" s="43" t="s">
+      <c r="D174" s="43" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9384,16 +9196,13 @@
       <c r="A175" s="43" t="n">
         <v>174</v>
       </c>
-      <c r="B175" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C175" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D175" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E175" s="43" t="s">
+      <c r="B175" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" s="43" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9401,13 +9210,13 @@
       <c r="A176" s="43" t="n">
         <v>175</v>
       </c>
-      <c r="C176" s="46" t="n">
+      <c r="B176" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="D176" s="46" t="n">
+      <c r="C176" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="E176" s="43" t="s">
+      <c r="D176" s="43" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9415,13 +9224,13 @@
       <c r="A177" s="43" t="n">
         <v>176</v>
       </c>
-      <c r="C177" s="46" t="n">
+      <c r="B177" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="D177" s="46" t="n">
+      <c r="C177" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E177" s="43" t="s">
+      <c r="D177" s="43" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9429,16 +9238,13 @@
       <c r="A178" s="43" t="n">
         <v>177</v>
       </c>
-      <c r="B178" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C178" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D178" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E178" s="43" t="s">
+      <c r="B178" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" s="43" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9446,13 +9252,13 @@
       <c r="A179" s="43" t="n">
         <v>178</v>
       </c>
-      <c r="C179" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D179" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E179" s="43" t="s">
+      <c r="B179" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C179" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" s="43" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9460,13 +9266,13 @@
       <c r="A180" s="43" t="n">
         <v>179</v>
       </c>
-      <c r="C180" s="46" t="n">
+      <c r="B180" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="D180" s="46" t="n">
+      <c r="C180" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E180" s="43" t="s">
+      <c r="D180" s="43" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9474,16 +9280,13 @@
       <c r="A181" s="43" t="n">
         <v>180</v>
       </c>
-      <c r="B181" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C181" s="46" t="n">
+      <c r="B181" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D181" s="46" t="n">
+      <c r="C181" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="E181" s="43" t="s">
+      <c r="D181" s="43" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9491,13 +9294,13 @@
       <c r="A182" s="43" t="n">
         <v>181</v>
       </c>
-      <c r="C182" s="46" t="n">
+      <c r="B182" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="D182" s="46" t="n">
+      <c r="C182" s="45" t="n">
         <v>9.5</v>
       </c>
-      <c r="E182" s="43" t="s">
+      <c r="D182" s="43" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9505,13 +9308,13 @@
       <c r="A183" s="43" t="n">
         <v>182</v>
       </c>
-      <c r="C183" s="46" t="n">
+      <c r="B183" s="45" t="n">
         <v>9.5</v>
       </c>
-      <c r="D183" s="46" t="n">
+      <c r="C183" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="E183" s="43" t="s">
+      <c r="D183" s="43" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9519,16 +9322,13 @@
       <c r="A184" s="43" t="n">
         <v>183</v>
       </c>
-      <c r="B184" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C184" s="46" t="n">
+      <c r="B184" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D184" s="46" t="n">
+      <c r="C184" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="E184" s="43" t="s">
+      <c r="D184" s="43" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9536,13 +9336,13 @@
       <c r="A185" s="43" t="n">
         <v>184</v>
       </c>
-      <c r="C185" s="46" t="n">
+      <c r="B185" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D185" s="46" t="n">
+      <c r="C185" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E185" s="43" t="s">
+      <c r="D185" s="43" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9550,13 +9350,13 @@
       <c r="A186" s="43" t="n">
         <v>185</v>
       </c>
-      <c r="C186" s="46" t="n">
+      <c r="B186" s="45" t="n">
         <v>18</v>
       </c>
-      <c r="D186" s="46" t="n">
+      <c r="C186" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="E186" s="43" t="s">
+      <c r="D186" s="43" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9564,16 +9364,13 @@
       <c r="A187" s="43" t="n">
         <v>186</v>
       </c>
-      <c r="B187" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C187" s="46" t="n">
+      <c r="B187" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D187" s="46" t="n">
+      <c r="C187" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="E187" s="43" t="s">
+      <c r="D187" s="43" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9581,13 +9378,13 @@
       <c r="A188" s="43" t="n">
         <v>187</v>
       </c>
-      <c r="C188" s="46" t="n">
+      <c r="B188" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="D188" s="46" t="n">
+      <c r="C188" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="E188" s="43" t="s">
+      <c r="D188" s="43" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9595,13 +9392,13 @@
       <c r="A189" s="43" t="n">
         <v>188</v>
       </c>
-      <c r="C189" s="46" t="n">
+      <c r="B189" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D189" s="46" t="n">
+      <c r="C189" s="45" t="n">
         <v>19</v>
       </c>
-      <c r="E189" s="43" t="s">
+      <c r="D189" s="43" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9609,16 +9406,13 @@
       <c r="A190" s="43" t="n">
         <v>189</v>
       </c>
-      <c r="B190" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="C190" s="46" t="n">
+      <c r="B190" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="D190" s="46" t="n">
+      <c r="C190" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E190" s="43" t="s">
+      <c r="D190" s="43" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9626,13 +9420,13 @@
       <c r="A191" s="43" t="n">
         <v>190</v>
       </c>
-      <c r="C191" s="46" t="n">
+      <c r="B191" s="45" t="n">
         <v>19.5</v>
       </c>
-      <c r="D191" s="46" t="n">
+      <c r="C191" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="E191" s="43" t="s">
+      <c r="D191" s="43" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9640,13 +9434,13 @@
       <c r="A192" s="43" t="n">
         <v>191</v>
       </c>
-      <c r="C192" s="46" t="n">
+      <c r="B192" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="D192" s="46" t="n">
+      <c r="C192" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="E192" s="43" t="s">
+      <c r="D192" s="43" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9654,16 +9448,13 @@
       <c r="A193" s="43" t="n">
         <v>192</v>
       </c>
-      <c r="B193" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C193" s="46" t="n">
+      <c r="B193" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D193" s="46" t="n">
+      <c r="C193" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E193" s="43" t="s">
+      <c r="D193" s="43" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9671,13 +9462,13 @@
       <c r="A194" s="43" t="n">
         <v>193</v>
       </c>
-      <c r="C194" s="46" t="n">
+      <c r="B194" s="45" t="n">
         <v>9.5</v>
       </c>
-      <c r="D194" s="46" t="n">
+      <c r="C194" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="E194" s="43" t="s">
+      <c r="D194" s="43" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9685,13 +9476,13 @@
       <c r="A195" s="43" t="n">
         <v>194</v>
       </c>
-      <c r="C195" s="46" t="n">
+      <c r="B195" s="45" t="n">
         <v>18.5</v>
       </c>
-      <c r="D195" s="46" t="n">
+      <c r="C195" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="E195" s="43" t="s">
+      <c r="D195" s="43" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9699,16 +9490,13 @@
       <c r="A196" s="43" t="n">
         <v>195</v>
       </c>
-      <c r="B196" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C196" s="46" t="n">
+      <c r="B196" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D196" s="46" t="n">
+      <c r="C196" s="45" t="n">
         <v>8.5</v>
       </c>
-      <c r="E196" s="43" t="s">
+      <c r="D196" s="43" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9716,13 +9504,13 @@
       <c r="A197" s="43" t="n">
         <v>196</v>
       </c>
-      <c r="C197" s="46" t="n">
+      <c r="B197" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D197" s="46" t="n">
+      <c r="C197" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E197" s="43" t="s">
+      <c r="D197" s="43" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9730,13 +9518,13 @@
       <c r="A198" s="43" t="n">
         <v>197</v>
       </c>
-      <c r="C198" s="46" t="n">
+      <c r="B198" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D198" s="46" t="n">
+      <c r="C198" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E198" s="43" t="s">
+      <c r="D198" s="43" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9744,16 +9532,13 @@
       <c r="A199" s="43" t="n">
         <v>198</v>
       </c>
-      <c r="B199" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C199" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D199" s="46" t="n">
+      <c r="B199" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C199" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="E199" s="43" t="s">
+      <c r="D199" s="43" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9761,13 +9546,13 @@
       <c r="A200" s="43" t="n">
         <v>199</v>
       </c>
-      <c r="C200" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D200" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E200" s="43" t="s">
+      <c r="B200" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C200" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" s="43" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9775,13 +9560,13 @@
       <c r="A201" s="43" t="n">
         <v>200</v>
       </c>
-      <c r="C201" s="46" t="n">
+      <c r="B201" s="45" t="n">
         <v>17.5</v>
       </c>
-      <c r="D201" s="46" t="n">
+      <c r="C201" s="45" t="n">
         <v>7.5</v>
       </c>
-      <c r="E201" s="43" t="s">
+      <c r="D201" s="43" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9789,16 +9574,13 @@
       <c r="A202" s="43" t="n">
         <v>201</v>
       </c>
-      <c r="B202" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C202" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D202" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E202" s="43" t="s">
+      <c r="B202" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C202" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" s="43" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9806,13 +9588,13 @@
       <c r="A203" s="43" t="n">
         <v>202</v>
       </c>
-      <c r="C203" s="46" t="n">
+      <c r="B203" s="45" t="n">
         <v>19</v>
       </c>
-      <c r="D203" s="46" t="n">
+      <c r="C203" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="E203" s="43" t="s">
+      <c r="D203" s="43" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9820,13 +9602,13 @@
       <c r="A204" s="43" t="n">
         <v>203</v>
       </c>
-      <c r="C204" s="46" t="n">
+      <c r="B204" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="D204" s="46" t="n">
+      <c r="C204" s="45" t="n">
         <v>6.5</v>
       </c>
-      <c r="E204" s="43" t="s">
+      <c r="D204" s="43" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9834,16 +9616,13 @@
       <c r="A205" s="43" t="n">
         <v>204</v>
       </c>
-      <c r="B205" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C205" s="48" t="n">
+      <c r="B205" s="47" t="n">
         <v>9.5</v>
       </c>
-      <c r="D205" s="46" t="n">
+      <c r="C205" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="E205" s="43" t="s">
+      <c r="D205" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9851,13 +9630,13 @@
       <c r="A206" s="43" t="n">
         <v>205</v>
       </c>
-      <c r="C206" s="46" t="n">
+      <c r="B206" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D206" s="46" t="n">
+      <c r="C206" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E206" s="43" t="s">
+      <c r="D206" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9865,13 +9644,13 @@
       <c r="A207" s="43" t="n">
         <v>206</v>
       </c>
-      <c r="C207" s="46" t="n">
+      <c r="B207" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D207" s="46" t="n">
+      <c r="C207" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="E207" s="43" t="s">
+      <c r="D207" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9879,16 +9658,13 @@
       <c r="A208" s="43" t="n">
         <v>207</v>
       </c>
-      <c r="B208" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C208" s="48" t="n">
+      <c r="B208" s="47" t="n">
         <v>14.5</v>
       </c>
-      <c r="D208" s="46" t="n">
+      <c r="C208" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E208" s="43" t="s">
+      <c r="D208" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9896,13 +9672,13 @@
       <c r="A209" s="43" t="n">
         <v>208</v>
       </c>
-      <c r="C209" s="46" t="n">
+      <c r="B209" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D209" s="48" t="n">
+      <c r="C209" s="47" t="n">
         <v>11.5</v>
       </c>
-      <c r="E209" s="43" t="s">
+      <c r="D209" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9910,13 +9686,13 @@
       <c r="A210" s="43" t="n">
         <v>209</v>
       </c>
-      <c r="C210" s="46" t="n">
+      <c r="B210" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D210" s="46" t="n">
+      <c r="C210" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="E210" s="43" t="s">
+      <c r="D210" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9924,16 +9700,13 @@
       <c r="A211" s="43" t="n">
         <v>210</v>
       </c>
-      <c r="B211" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C211" s="46" t="n">
+      <c r="B211" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D211" s="46" t="n">
+      <c r="C211" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="E211" s="43" t="s">
+      <c r="D211" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9941,13 +9714,13 @@
       <c r="A212" s="43" t="n">
         <v>211</v>
       </c>
-      <c r="C212" s="48" t="n">
+      <c r="B212" s="47" t="n">
         <v>17.5</v>
       </c>
-      <c r="D212" s="46" t="n">
+      <c r="C212" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E212" s="43" t="s">
+      <c r="D212" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9955,13 +9728,13 @@
       <c r="A213" s="43" t="n">
         <v>212</v>
       </c>
-      <c r="C213" s="48" t="n">
+      <c r="B213" s="47" t="n">
         <v>16.5</v>
       </c>
-      <c r="D213" s="48" t="n">
+      <c r="C213" s="47" t="n">
         <v>15.5</v>
       </c>
-      <c r="E213" s="43" t="s">
+      <c r="D213" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9969,16 +9742,13 @@
       <c r="A214" s="43" t="n">
         <v>213</v>
       </c>
-      <c r="B214" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C214" s="46" t="n">
+      <c r="B214" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D214" s="46" t="n">
+      <c r="C214" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E214" s="43" t="s">
+      <c r="D214" s="43" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9986,13 +9756,13 @@
       <c r="A215" s="43" t="n">
         <v>214</v>
       </c>
-      <c r="C215" s="48" t="n">
+      <c r="B215" s="47" t="n">
         <v>14.5</v>
       </c>
-      <c r="D215" s="46" t="n">
+      <c r="C215" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="E215" s="43" t="s">
+      <c r="D215" s="43" t="s">
         <v>60</v>
       </c>
     </row>
@@ -10000,13 +9770,13 @@
       <c r="A216" s="43" t="n">
         <v>215</v>
       </c>
-      <c r="C216" s="46" t="n">
+      <c r="B216" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D216" s="46" t="n">
+      <c r="C216" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E216" s="43" t="s">
+      <c r="D216" s="43" t="s">
         <v>60</v>
       </c>
     </row>
@@ -10014,16 +9784,13 @@
       <c r="A217" s="43" t="n">
         <v>216</v>
       </c>
-      <c r="B217" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C217" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D217" s="46" t="n">
+      <c r="B217" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C217" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E217" s="43" t="s">
+      <c r="D217" s="43" t="s">
         <v>60</v>
       </c>
     </row>
@@ -10031,13 +9798,13 @@
       <c r="A218" s="43" t="n">
         <v>217</v>
       </c>
-      <c r="C218" s="46" t="n">
+      <c r="B218" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D218" s="46" t="n">
+      <c r="C218" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E218" s="43" t="s">
+      <c r="D218" s="43" t="s">
         <v>60</v>
       </c>
     </row>
@@ -10045,13 +9812,13 @@
       <c r="A219" s="43" t="n">
         <v>218</v>
       </c>
-      <c r="C219" s="48" t="n">
+      <c r="B219" s="47" t="n">
         <v>12.5</v>
       </c>
-      <c r="D219" s="46" t="n">
+      <c r="C219" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E219" s="43" t="s">
+      <c r="D219" s="43" t="s">
         <v>60</v>
       </c>
     </row>
@@ -10059,16 +9826,13 @@
       <c r="A220" s="43" t="n">
         <v>219</v>
       </c>
-      <c r="B220" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C220" s="46" t="n">
+      <c r="B220" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="D220" s="48" t="n">
+      <c r="C220" s="47" t="n">
         <v>9.5</v>
       </c>
-      <c r="E220" s="43" t="s">
+      <c r="D220" s="43" t="s">
         <v>60</v>
       </c>
     </row>
@@ -10076,13 +9840,13 @@
       <c r="A221" s="43" t="n">
         <v>220</v>
       </c>
-      <c r="C221" s="46" t="n">
+      <c r="B221" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="D221" s="48" t="n">
+      <c r="C221" s="47" t="n">
         <v>7.5</v>
       </c>
-      <c r="E221" s="43" t="s">
+      <c r="D221" s="43" t="s">
         <v>60</v>
       </c>
     </row>
@@ -10090,13 +9854,13 @@
       <c r="A222" s="43" t="n">
         <v>221</v>
       </c>
-      <c r="C222" s="46" t="n">
+      <c r="B222" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="D222" s="46" t="n">
+      <c r="C222" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E222" s="43" t="s">
+      <c r="D222" s="43" t="s">
         <v>60</v>
       </c>
     </row>
@@ -10104,16 +9868,13 @@
       <c r="A223" s="43" t="n">
         <v>222</v>
       </c>
-      <c r="B223" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C223" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D223" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E223" s="43" t="s">
+      <c r="B223" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C223" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D223" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10121,13 +9882,13 @@
       <c r="A224" s="43" t="n">
         <v>223</v>
       </c>
-      <c r="C224" s="48" t="n">
+      <c r="B224" s="47" t="n">
         <v>15.5</v>
       </c>
-      <c r="D224" s="48" t="n">
+      <c r="C224" s="47" t="n">
         <v>18.5</v>
       </c>
-      <c r="E224" s="43" t="s">
+      <c r="D224" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10135,13 +9896,13 @@
       <c r="A225" s="43" t="n">
         <v>224</v>
       </c>
-      <c r="C225" s="48" t="n">
+      <c r="B225" s="47" t="n">
         <v>9.5</v>
       </c>
-      <c r="D225" s="48" t="n">
+      <c r="C225" s="47" t="n">
         <v>18.5</v>
       </c>
-      <c r="E225" s="43" t="s">
+      <c r="D225" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10149,16 +9910,13 @@
       <c r="A226" s="43" t="n">
         <v>225</v>
       </c>
-      <c r="B226" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C226" s="46" t="n">
+      <c r="B226" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D226" s="46" t="n">
+      <c r="C226" s="45" t="n">
         <v>19</v>
       </c>
-      <c r="E226" s="43" t="s">
+      <c r="D226" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10166,13 +9924,13 @@
       <c r="A227" s="43" t="n">
         <v>226</v>
       </c>
-      <c r="C227" s="48" t="n">
+      <c r="B227" s="47" t="n">
         <v>12.5</v>
       </c>
-      <c r="D227" s="46" t="n">
+      <c r="C227" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E227" s="43" t="s">
+      <c r="D227" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10180,13 +9938,13 @@
       <c r="A228" s="43" t="n">
         <v>227</v>
       </c>
-      <c r="C228" s="46" t="n">
+      <c r="B228" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D228" s="48" t="n">
+      <c r="C228" s="47" t="n">
         <v>15.5</v>
       </c>
-      <c r="E228" s="43" t="s">
+      <c r="D228" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10194,16 +9952,13 @@
       <c r="A229" s="43" t="n">
         <v>228</v>
       </c>
-      <c r="B229" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C229" s="46" t="n">
+      <c r="B229" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="D229" s="46" t="n">
+      <c r="C229" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E229" s="43" t="s">
+      <c r="D229" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10211,13 +9966,13 @@
       <c r="A230" s="43" t="n">
         <v>229</v>
       </c>
-      <c r="C230" s="46" t="n">
+      <c r="B230" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D230" s="46" t="n">
+      <c r="C230" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E230" s="43" t="s">
+      <c r="D230" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10225,13 +9980,13 @@
       <c r="A231" s="43" t="n">
         <v>230</v>
       </c>
-      <c r="C231" s="46" t="n">
+      <c r="B231" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D231" s="48" t="n">
+      <c r="C231" s="47" t="n">
         <v>13.5</v>
       </c>
-      <c r="E231" s="43" t="s">
+      <c r="D231" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10239,16 +9994,13 @@
       <c r="A232" s="43" t="n">
         <v>231</v>
       </c>
-      <c r="B232" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C232" s="46" t="n">
+      <c r="B232" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D232" s="46" t="n">
+      <c r="C232" s="45" t="n">
         <v>8.5</v>
       </c>
-      <c r="E232" s="43" t="s">
+      <c r="D232" s="43" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10256,13 +10008,13 @@
       <c r="A233" s="43" t="n">
         <v>232</v>
       </c>
-      <c r="C233" s="46" t="n">
+      <c r="B233" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D233" s="46" t="n">
+      <c r="C233" s="45" t="n">
         <v>10.5</v>
       </c>
-      <c r="E233" s="43" t="s">
+      <c r="D233" s="43" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10270,13 +10022,13 @@
       <c r="A234" s="43" t="n">
         <v>233</v>
       </c>
-      <c r="C234" s="46" t="n">
+      <c r="B234" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="D234" s="46" t="n">
+      <c r="C234" s="45" t="n">
         <v>10.5</v>
       </c>
-      <c r="E234" s="43" t="s">
+      <c r="D234" s="43" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10284,16 +10036,13 @@
       <c r="A235" s="43" t="n">
         <v>234</v>
       </c>
-      <c r="B235" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C235" s="46" t="n">
+      <c r="B235" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="D235" s="46" t="n">
+      <c r="C235" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E235" s="43" t="s">
+      <c r="D235" s="43" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10301,13 +10050,13 @@
       <c r="A236" s="43" t="n">
         <v>235</v>
       </c>
-      <c r="C236" s="46" t="n">
+      <c r="B236" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="D236" s="46" t="n">
+      <c r="C236" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E236" s="43" t="s">
+      <c r="D236" s="43" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10315,13 +10064,13 @@
       <c r="A237" s="43" t="n">
         <v>236</v>
       </c>
-      <c r="C237" s="46" t="n">
+      <c r="B237" s="45" t="n">
         <v>18</v>
       </c>
-      <c r="D237" s="46" t="n">
+      <c r="C237" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E237" s="43" t="s">
+      <c r="D237" s="43" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10329,16 +10078,13 @@
       <c r="A238" s="43" t="n">
         <v>237</v>
       </c>
-      <c r="B238" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C238" s="46" t="n">
+      <c r="B238" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D238" s="46" t="n">
+      <c r="C238" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="E238" s="43" t="s">
+      <c r="D238" s="43" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10346,13 +10092,13 @@
       <c r="A239" s="43" t="n">
         <v>238</v>
       </c>
-      <c r="C239" s="46" t="n">
+      <c r="B239" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="D239" s="46" t="n">
+      <c r="C239" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E239" s="43" t="s">
+      <c r="D239" s="43" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10360,13 +10106,13 @@
       <c r="A240" s="43" t="n">
         <v>239</v>
       </c>
-      <c r="C240" s="46" t="n">
+      <c r="B240" s="45" t="n">
         <v>17.5</v>
       </c>
-      <c r="D240" s="46" t="n">
+      <c r="C240" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E240" s="43" t="s">
+      <c r="D240" s="43" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10374,16 +10120,13 @@
       <c r="A241" s="43" t="n">
         <v>240</v>
       </c>
-      <c r="B241" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C241" s="46" t="n">
+      <c r="B241" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="D241" s="46" t="n">
+      <c r="C241" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E241" s="43" t="s">
+      <c r="D241" s="43" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10391,13 +10134,13 @@
       <c r="A242" s="43" t="n">
         <v>241</v>
       </c>
-      <c r="C242" s="46" t="n">
+      <c r="B242" s="45" t="n">
         <v>19</v>
       </c>
-      <c r="D242" s="46" t="n">
+      <c r="C242" s="45" t="n">
         <v>17.5</v>
       </c>
-      <c r="E242" s="43" t="s">
+      <c r="D242" s="43" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10405,13 +10148,13 @@
       <c r="A243" s="43" t="n">
         <v>242</v>
       </c>
-      <c r="C243" s="46" t="n">
+      <c r="B243" s="45" t="n">
         <v>10.5</v>
       </c>
-      <c r="D243" s="46" t="n">
+      <c r="C243" s="45" t="n">
         <v>17.5</v>
       </c>
-      <c r="E243" s="43" t="s">
+      <c r="D243" s="43" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10419,16 +10162,13 @@
       <c r="A244" s="43" t="n">
         <v>243</v>
       </c>
-      <c r="B244" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C244" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D244" s="46" t="n">
+      <c r="B244" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C244" s="45" t="n">
         <v>19.5</v>
       </c>
-      <c r="E244" s="43" t="s">
+      <c r="D244" s="43" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10436,13 +10176,13 @@
       <c r="A245" s="43" t="n">
         <v>244</v>
       </c>
-      <c r="C245" s="46" t="n">
+      <c r="B245" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="D245" s="46" t="n">
+      <c r="C245" s="45" t="n">
         <v>17.5</v>
       </c>
-      <c r="E245" s="43" t="s">
+      <c r="D245" s="43" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10450,13 +10190,13 @@
       <c r="A246" s="43" t="n">
         <v>245</v>
       </c>
-      <c r="C246" s="46" t="n">
+      <c r="B246" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="D246" s="46" t="n">
+      <c r="C246" s="45" t="n">
         <v>18</v>
       </c>
-      <c r="E246" s="43" t="s">
+      <c r="D246" s="43" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10464,16 +10204,13 @@
       <c r="A247" s="43" t="n">
         <v>246</v>
       </c>
-      <c r="B247" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C247" s="46" t="n">
+      <c r="B247" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D247" s="46" t="n">
+      <c r="C247" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E247" s="43" t="s">
+      <c r="D247" s="43" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10481,13 +10218,13 @@
       <c r="A248" s="43" t="n">
         <v>247</v>
       </c>
-      <c r="C248" s="46" t="n">
+      <c r="B248" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D248" s="46" t="n">
+      <c r="C248" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="E248" s="43" t="s">
+      <c r="D248" s="43" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10495,13 +10232,13 @@
       <c r="A249" s="43" t="n">
         <v>248</v>
       </c>
-      <c r="C249" s="46" t="n">
+      <c r="B249" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="D249" s="46" t="n">
+      <c r="C249" s="45" t="n">
         <v>9.5</v>
       </c>
-      <c r="E249" s="43" t="s">
+      <c r="D249" s="43" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10509,16 +10246,13 @@
       <c r="A250" s="43" t="n">
         <v>249</v>
       </c>
-      <c r="B250" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C250" s="46" t="n">
+      <c r="B250" s="45" t="n">
         <v>16.5</v>
       </c>
-      <c r="D250" s="46" t="n">
+      <c r="C250" s="45" t="n">
         <v>21</v>
       </c>
-      <c r="E250" s="43" t="s">
+      <c r="D250" s="43" t="s">
         <v>11</v>
       </c>
     </row>
@@ -10526,13 +10260,13 @@
       <c r="A251" s="43" t="n">
         <v>250</v>
       </c>
-      <c r="C251" s="46" t="n">
+      <c r="B251" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D251" s="46" t="n">
+      <c r="C251" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="E251" s="43" t="s">
+      <c r="D251" s="43" t="s">
         <v>11</v>
       </c>
     </row>
@@ -10540,13 +10274,13 @@
       <c r="A252" s="43" t="n">
         <v>251</v>
       </c>
-      <c r="C252" s="46" t="n">
+      <c r="B252" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="D252" s="46" t="n">
+      <c r="C252" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="E252" s="43" t="s">
+      <c r="D252" s="43" t="s">
         <v>11</v>
       </c>
     </row>
@@ -10554,16 +10288,13 @@
       <c r="A253" s="43" t="n">
         <v>252</v>
       </c>
-      <c r="B253" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C253" s="46" t="n">
+      <c r="B253" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D253" s="46" t="n">
+      <c r="C253" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="E253" s="43" t="s">
+      <c r="D253" s="43" t="s">
         <v>11</v>
       </c>
     </row>
@@ -10571,13 +10302,13 @@
       <c r="A254" s="43" t="n">
         <v>253</v>
       </c>
-      <c r="C254" s="46" t="n">
+      <c r="B254" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="D254" s="46" t="n">
+      <c r="C254" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="E254" s="43" t="s">
+      <c r="D254" s="43" t="s">
         <v>11</v>
       </c>
     </row>
@@ -10585,13 +10316,13 @@
       <c r="A255" s="43" t="n">
         <v>254</v>
       </c>
-      <c r="C255" s="46" t="n">
+      <c r="B255" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="D255" s="46" t="n">
+      <c r="C255" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E255" s="43" t="s">
+      <c r="D255" s="43" t="s">
         <v>11</v>
       </c>
     </row>
@@ -10599,16 +10330,13 @@
       <c r="A256" s="43" t="n">
         <v>255</v>
       </c>
-      <c r="B256" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C256" s="46" t="n">
+      <c r="B256" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="D256" s="46" t="n">
+      <c r="C256" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="E256" s="43" t="s">
+      <c r="D256" s="43" t="s">
         <v>11</v>
       </c>
     </row>
@@ -10616,13 +10344,13 @@
       <c r="A257" s="43" t="n">
         <v>256</v>
       </c>
-      <c r="C257" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D257" s="46" t="n">
+      <c r="B257" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C257" s="45" t="n">
         <v>8.5</v>
       </c>
-      <c r="E257" s="43" t="s">
+      <c r="D257" s="43" t="s">
         <v>11</v>
       </c>
     </row>
@@ -10630,13 +10358,13 @@
       <c r="A258" s="43" t="n">
         <v>257</v>
       </c>
-      <c r="C258" s="46" t="n">
+      <c r="B258" s="45" t="n">
         <v>16.5</v>
       </c>
-      <c r="D258" s="46" t="n">
+      <c r="C258" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E258" s="43" t="s">
+      <c r="D258" s="43" t="s">
         <v>11</v>
       </c>
     </row>
@@ -10644,16 +10372,13 @@
       <c r="A259" s="43" t="n">
         <v>258</v>
       </c>
-      <c r="B259" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C259" s="46" t="n">
+      <c r="B259" s="45" t="n">
         <v>17.5</v>
       </c>
-      <c r="D259" s="46" t="n">
+      <c r="C259" s="45" t="n">
         <v>4.5</v>
       </c>
-      <c r="E259" s="43" t="s">
+      <c r="D259" s="43" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10661,13 +10386,13 @@
       <c r="A260" s="43" t="n">
         <v>259</v>
       </c>
-      <c r="C260" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D260" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E260" s="43" t="s">
+      <c r="B260" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C260" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D260" s="43" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10675,13 +10400,13 @@
       <c r="A261" s="43" t="n">
         <v>260</v>
       </c>
-      <c r="C261" s="46" t="n">
+      <c r="B261" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="D261" s="46" t="n">
+      <c r="C261" s="45" t="n">
         <v>4.5</v>
       </c>
-      <c r="E261" s="43" t="s">
+      <c r="D261" s="43" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10689,16 +10414,13 @@
       <c r="A262" s="43" t="n">
         <v>261</v>
       </c>
-      <c r="B262" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C262" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D262" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E262" s="43" t="s">
+      <c r="B262" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C262" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D262" s="43" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10706,13 +10428,13 @@
       <c r="A263" s="43" t="n">
         <v>262</v>
       </c>
-      <c r="C263" s="46" t="n">
+      <c r="B263" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D263" s="46" t="n">
+      <c r="C263" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E263" s="43" t="s">
+      <c r="D263" s="43" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10720,13 +10442,13 @@
       <c r="A264" s="43" t="n">
         <v>263</v>
       </c>
-      <c r="C264" s="46" t="n">
+      <c r="B264" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="D264" s="46" t="n">
+      <c r="C264" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="E264" s="43" t="s">
+      <c r="D264" s="43" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10734,16 +10456,13 @@
       <c r="A265" s="43" t="n">
         <v>264</v>
       </c>
-      <c r="B265" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C265" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D265" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E265" s="43" t="s">
+      <c r="B265" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C265" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D265" s="43" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10751,13 +10470,13 @@
       <c r="A266" s="43" t="n">
         <v>265</v>
       </c>
-      <c r="C266" s="46" t="n">
+      <c r="B266" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D266" s="46" t="n">
+      <c r="C266" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E266" s="43" t="s">
+      <c r="D266" s="43" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10765,13 +10484,13 @@
       <c r="A267" s="43" t="n">
         <v>266</v>
       </c>
-      <c r="C267" s="46" t="n">
+      <c r="B267" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="D267" s="46" t="n">
+      <c r="C267" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="E267" s="43" t="s">
+      <c r="D267" s="43" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10779,16 +10498,13 @@
       <c r="A268" s="43" t="n">
         <v>267</v>
       </c>
-      <c r="B268" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C268" s="46" t="n">
+      <c r="B268" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D268" s="46" t="n">
+      <c r="C268" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="E268" s="43" t="s">
+      <c r="D268" s="43" t="s">
         <v>15</v>
       </c>
     </row>
@@ -10796,13 +10512,13 @@
       <c r="A269" s="43" t="n">
         <v>268</v>
       </c>
-      <c r="C269" s="46" t="n">
+      <c r="B269" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="D269" s="46" t="n">
+      <c r="C269" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E269" s="43" t="s">
+      <c r="D269" s="43" t="s">
         <v>15</v>
       </c>
     </row>
@@ -10810,13 +10526,13 @@
       <c r="A270" s="43" t="n">
         <v>269</v>
       </c>
-      <c r="C270" s="46" t="n">
+      <c r="B270" s="45" t="n">
         <v>8.5</v>
       </c>
-      <c r="D270" s="46" t="n">
+      <c r="C270" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="E270" s="43" t="s">
+      <c r="D270" s="43" t="s">
         <v>15</v>
       </c>
     </row>
@@ -10824,16 +10540,13 @@
       <c r="A271" s="43" t="n">
         <v>270</v>
       </c>
-      <c r="B271" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C271" s="46" t="n">
+      <c r="B271" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="D271" s="46" t="n">
+      <c r="C271" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="E271" s="43" t="s">
+      <c r="D271" s="43" t="s">
         <v>15</v>
       </c>
     </row>
@@ -10841,13 +10554,13 @@
       <c r="A272" s="43" t="n">
         <v>271</v>
       </c>
-      <c r="C272" s="46" t="n">
+      <c r="B272" s="45" t="n">
         <v>19</v>
       </c>
-      <c r="D272" s="46" t="n">
+      <c r="C272" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="E272" s="43" t="s">
+      <c r="D272" s="43" t="s">
         <v>15</v>
       </c>
     </row>
@@ -10855,13 +10568,13 @@
       <c r="A273" s="43" t="n">
         <v>272</v>
       </c>
-      <c r="C273" s="46" t="n">
+      <c r="B273" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="D273" s="46" t="n">
+      <c r="C273" s="45" t="n">
         <v>19</v>
       </c>
-      <c r="E273" s="43" t="s">
+      <c r="D273" s="43" t="s">
         <v>15</v>
       </c>
     </row>
@@ -10869,16 +10582,13 @@
       <c r="A274" s="43" t="n">
         <v>273</v>
       </c>
-      <c r="B274" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C274" s="46" t="n">
+      <c r="B274" s="45" t="n">
         <v>4.5</v>
       </c>
-      <c r="D274" s="46" t="n">
+      <c r="C274" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="E274" s="43" t="s">
+      <c r="D274" s="43" t="s">
         <v>15</v>
       </c>
     </row>
@@ -10886,13 +10596,13 @@
       <c r="A275" s="43" t="n">
         <v>274</v>
       </c>
-      <c r="C275" s="46" t="n">
+      <c r="B275" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D275" s="46" t="n">
+      <c r="C275" s="45" t="n">
         <v>9.5</v>
       </c>
-      <c r="E275" s="43" t="s">
+      <c r="D275" s="43" t="s">
         <v>15</v>
       </c>
     </row>
@@ -10900,13 +10610,13 @@
       <c r="A276" s="43" t="n">
         <v>275</v>
       </c>
-      <c r="C276" s="46" t="n">
+      <c r="B276" s="45" t="n">
         <v>19.5</v>
       </c>
-      <c r="D276" s="46" t="n">
+      <c r="C276" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E276" s="43" t="s">
+      <c r="D276" s="43" t="s">
         <v>15</v>
       </c>
     </row>
@@ -10914,16 +10624,13 @@
       <c r="A277" s="43" t="n">
         <v>276</v>
       </c>
-      <c r="B277" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C277" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D277" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E277" s="43" t="s">
+      <c r="B277" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C277" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D277" s="43" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10931,13 +10638,13 @@
       <c r="A278" s="43" t="n">
         <v>277</v>
       </c>
-      <c r="C278" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D278" s="46" t="n">
+      <c r="B278" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C278" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E278" s="43" t="s">
+      <c r="D278" s="43" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10945,13 +10652,13 @@
       <c r="A279" s="43" t="n">
         <v>278</v>
       </c>
-      <c r="C279" s="46" t="n">
+      <c r="B279" s="45" t="n">
         <v>19.5</v>
       </c>
-      <c r="D279" s="46" t="n">
+      <c r="C279" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E279" s="43" t="s">
+      <c r="D279" s="43" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10959,16 +10666,13 @@
       <c r="A280" s="43" t="n">
         <v>279</v>
       </c>
-      <c r="B280" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C280" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D280" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E280" s="43" t="s">
+      <c r="B280" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C280" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D280" s="43" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10976,13 +10680,13 @@
       <c r="A281" s="43" t="n">
         <v>280</v>
       </c>
-      <c r="C281" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D281" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E281" s="43" t="s">
+      <c r="B281" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C281" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D281" s="43" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10990,13 +10694,13 @@
       <c r="A282" s="43" t="n">
         <v>281</v>
       </c>
-      <c r="C282" s="46" t="n">
+      <c r="B282" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D282" s="46" t="n">
+      <c r="C282" s="45" t="n">
         <v>6.5</v>
       </c>
-      <c r="E282" s="43" t="s">
+      <c r="D282" s="43" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11004,16 +10708,13 @@
       <c r="A283" s="43" t="n">
         <v>282</v>
       </c>
-      <c r="B283" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C283" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D283" s="46" t="n">
+      <c r="B283" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C283" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E283" s="43" t="s">
+      <c r="D283" s="43" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11021,13 +10722,13 @@
       <c r="A284" s="43" t="n">
         <v>283</v>
       </c>
-      <c r="C284" s="46" t="n">
+      <c r="B284" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="D284" s="46" t="n">
+      <c r="C284" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E284" s="43" t="s">
+      <c r="D284" s="43" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11035,13 +10736,13 @@
       <c r="A285" s="43" t="n">
         <v>284</v>
       </c>
-      <c r="C285" s="46" t="n">
+      <c r="B285" s="45" t="n">
         <v>18</v>
       </c>
-      <c r="D285" s="46" t="n">
+      <c r="C285" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="E285" s="43" t="s">
+      <c r="D285" s="43" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11049,16 +10750,13 @@
       <c r="A286" s="43" t="n">
         <v>285</v>
       </c>
-      <c r="B286" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C286" s="46" t="n">
+      <c r="B286" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="D286" s="46" t="n">
+      <c r="C286" s="45" t="n">
         <v>9.5</v>
       </c>
-      <c r="E286" s="43" t="s">
+      <c r="D286" s="43" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11066,13 +10764,13 @@
       <c r="A287" s="43" t="n">
         <v>286</v>
       </c>
-      <c r="C287" s="46" t="n">
+      <c r="B287" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D287" s="46" t="n">
+      <c r="C287" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="E287" s="43" t="s">
+      <c r="D287" s="43" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11080,13 +10778,13 @@
       <c r="A288" s="43" t="n">
         <v>287</v>
       </c>
-      <c r="C288" s="46" t="n">
+      <c r="B288" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="D288" s="46" t="n">
+      <c r="C288" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="E288" s="43" t="s">
+      <c r="D288" s="43" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11094,16 +10792,13 @@
       <c r="A289" s="43" t="n">
         <v>288</v>
       </c>
-      <c r="B289" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C289" s="46" t="n">
+      <c r="B289" s="45" t="n">
         <v>9.5</v>
       </c>
-      <c r="D289" s="46" t="n">
+      <c r="C289" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="E289" s="43" t="s">
+      <c r="D289" s="43" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11111,13 +10806,13 @@
       <c r="A290" s="43" t="n">
         <v>289</v>
       </c>
-      <c r="C290" s="46" t="n">
+      <c r="B290" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D290" s="46" t="n">
+      <c r="C290" s="45" t="n">
         <v>6</v>
       </c>
-      <c r="E290" s="43" t="s">
+      <c r="D290" s="43" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11125,13 +10820,13 @@
       <c r="A291" s="43" t="n">
         <v>290</v>
       </c>
-      <c r="C291" s="46" t="n">
+      <c r="B291" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D291" s="46" t="n">
+      <c r="C291" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="E291" s="43" t="s">
+      <c r="D291" s="43" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11139,16 +10834,13 @@
       <c r="A292" s="43" t="n">
         <v>291</v>
       </c>
-      <c r="B292" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C292" s="46" t="n">
+      <c r="B292" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="D292" s="46" t="n">
+      <c r="C292" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="E292" s="43" t="s">
+      <c r="D292" s="43" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11156,13 +10848,13 @@
       <c r="A293" s="43" t="n">
         <v>292</v>
       </c>
-      <c r="C293" s="46" t="n">
+      <c r="B293" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D293" s="46" t="n">
+      <c r="C293" s="45" t="n">
         <v>6.5</v>
       </c>
-      <c r="E293" s="43" t="s">
+      <c r="D293" s="43" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11170,13 +10862,13 @@
       <c r="A294" s="43" t="n">
         <v>293</v>
       </c>
-      <c r="C294" s="46" t="n">
+      <c r="B294" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D294" s="46" t="n">
+      <c r="C294" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E294" s="43" t="s">
+      <c r="D294" s="43" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11184,16 +10876,13 @@
       <c r="A295" s="43" t="n">
         <v>294</v>
       </c>
-      <c r="B295" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="C295" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D295" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E295" s="43" t="s">
+      <c r="B295" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C295" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D295" s="43" t="s">
         <v>24</v>
       </c>
     </row>
@@ -11201,13 +10890,13 @@
       <c r="A296" s="43" t="n">
         <v>295</v>
       </c>
-      <c r="C296" s="46" t="n">
+      <c r="B296" s="45" t="n">
         <v>18</v>
       </c>
-      <c r="D296" s="46" t="n">
+      <c r="C296" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="E296" s="43" t="s">
+      <c r="D296" s="43" t="s">
         <v>24</v>
       </c>
     </row>
@@ -11215,13 +10904,13 @@
       <c r="A297" s="43" t="n">
         <v>296</v>
       </c>
-      <c r="C297" s="46" t="n">
+      <c r="B297" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D297" s="46" t="n">
+      <c r="C297" s="45" t="n">
         <v>5.5</v>
       </c>
-      <c r="E297" s="43" t="s">
+      <c r="D297" s="43" t="s">
         <v>24</v>
       </c>
     </row>
@@ -11229,16 +10918,13 @@
       <c r="A298" s="43" t="n">
         <v>297</v>
       </c>
-      <c r="B298" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="C298" s="46" t="n">
+      <c r="B298" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="D298" s="46" t="n">
+      <c r="C298" s="45" t="n">
         <v>18</v>
       </c>
-      <c r="E298" s="43" t="s">
+      <c r="D298" s="43" t="s">
         <v>24</v>
       </c>
     </row>
@@ -11246,13 +10932,13 @@
       <c r="A299" s="43" t="n">
         <v>298</v>
       </c>
-      <c r="C299" s="46" t="n">
+      <c r="B299" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D299" s="46" t="n">
+      <c r="C299" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E299" s="43" t="s">
+      <c r="D299" s="43" t="s">
         <v>24</v>
       </c>
     </row>
@@ -11260,13 +10946,13 @@
       <c r="A300" s="43" t="n">
         <v>299</v>
       </c>
-      <c r="C300" s="46" t="n">
+      <c r="B300" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="D300" s="46" t="n">
+      <c r="C300" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="E300" s="43" t="s">
+      <c r="D300" s="43" t="s">
         <v>24</v>
       </c>
     </row>
@@ -11274,16 +10960,13 @@
       <c r="A301" s="43" t="n">
         <v>300</v>
       </c>
-      <c r="B301" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="C301" s="46" t="n">
+      <c r="B301" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="D301" s="46" t="n">
+      <c r="C301" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E301" s="43" t="s">
+      <c r="D301" s="43" t="s">
         <v>24</v>
       </c>
     </row>
@@ -11291,13 +10974,13 @@
       <c r="A302" s="43" t="n">
         <v>301</v>
       </c>
-      <c r="C302" s="46" t="n">
+      <c r="B302" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D302" s="46" t="n">
+      <c r="C302" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="E302" s="43" t="s">
+      <c r="D302" s="43" t="s">
         <v>24</v>
       </c>
     </row>
@@ -11305,13 +10988,13 @@
       <c r="A303" s="43" t="n">
         <v>302</v>
       </c>
-      <c r="C303" s="46" t="n">
+      <c r="B303" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D303" s="46" t="n">
+      <c r="C303" s="45" t="n">
         <v>9.5</v>
       </c>
-      <c r="E303" s="43" t="s">
+      <c r="D303" s="43" t="s">
         <v>24</v>
       </c>
     </row>
@@ -11319,16 +11002,13 @@
       <c r="A304" s="43" t="n">
         <v>303</v>
       </c>
-      <c r="B304" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C304" s="46" t="n">
+      <c r="B304" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D304" s="46" t="n">
+      <c r="C304" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E304" s="43" t="s">
+      <c r="D304" s="43" t="s">
         <v>25</v>
       </c>
     </row>
@@ -11336,13 +11016,13 @@
       <c r="A305" s="43" t="n">
         <v>304</v>
       </c>
-      <c r="C305" s="46" t="n">
+      <c r="B305" s="45" t="n">
         <v>10.5</v>
       </c>
-      <c r="D305" s="46" t="n">
+      <c r="C305" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="E305" s="43" t="s">
+      <c r="D305" s="43" t="s">
         <v>25</v>
       </c>
     </row>
@@ -11350,13 +11030,13 @@
       <c r="A306" s="43" t="n">
         <v>305</v>
       </c>
-      <c r="C306" s="46" t="n">
+      <c r="B306" s="45" t="n">
         <v>19</v>
       </c>
-      <c r="D306" s="46" t="n">
+      <c r="C306" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="E306" s="43" t="s">
+      <c r="D306" s="43" t="s">
         <v>25</v>
       </c>
     </row>
@@ -11364,16 +11044,13 @@
       <c r="A307" s="43" t="n">
         <v>306</v>
       </c>
-      <c r="B307" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C307" s="46" t="n">
+      <c r="B307" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D307" s="46" t="n">
+      <c r="C307" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E307" s="43" t="s">
+      <c r="D307" s="43" t="s">
         <v>25</v>
       </c>
     </row>
@@ -11381,13 +11058,13 @@
       <c r="A308" s="43" t="n">
         <v>307</v>
       </c>
-      <c r="C308" s="46" t="n">
+      <c r="B308" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D308" s="46" t="n">
+      <c r="C308" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="E308" s="43" t="s">
+      <c r="D308" s="43" t="s">
         <v>25</v>
       </c>
     </row>
@@ -11395,13 +11072,13 @@
       <c r="A309" s="43" t="n">
         <v>308</v>
       </c>
-      <c r="C309" s="46" t="n">
+      <c r="B309" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="D309" s="46" t="n">
+      <c r="C309" s="45" t="n">
         <v>8.5</v>
       </c>
-      <c r="E309" s="43" t="s">
+      <c r="D309" s="43" t="s">
         <v>25</v>
       </c>
     </row>
@@ -11409,16 +11086,13 @@
       <c r="A310" s="43" t="n">
         <v>309</v>
       </c>
-      <c r="B310" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C310" s="46" t="n">
+      <c r="B310" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="D310" s="46" t="n">
+      <c r="C310" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="E310" s="43" t="s">
+      <c r="D310" s="43" t="s">
         <v>25</v>
       </c>
     </row>
@@ -11426,13 +11100,13 @@
       <c r="A311" s="43" t="n">
         <v>310</v>
       </c>
-      <c r="C311" s="46" t="n">
+      <c r="B311" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="D311" s="46" t="n">
+      <c r="C311" s="45" t="n">
         <v>9.5</v>
       </c>
-      <c r="E311" s="43" t="s">
+      <c r="D311" s="43" t="s">
         <v>25</v>
       </c>
     </row>
@@ -11440,13 +11114,13 @@
       <c r="A312" s="43" t="n">
         <v>311</v>
       </c>
-      <c r="C312" s="46" t="n">
+      <c r="B312" s="45" t="n">
         <v>17.5</v>
       </c>
-      <c r="D312" s="46" t="n">
+      <c r="C312" s="45" t="n">
         <v>7.5</v>
       </c>
-      <c r="E312" s="43" t="s">
+      <c r="D312" s="43" t="s">
         <v>25</v>
       </c>
     </row>
@@ -11454,16 +11128,13 @@
       <c r="A313" s="43" t="n">
         <v>312</v>
       </c>
-      <c r="B313" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C313" s="46" t="n">
+      <c r="B313" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D313" s="46" t="n">
+      <c r="C313" s="45" t="n">
         <v>9.5</v>
       </c>
-      <c r="E313" s="43" t="s">
+      <c r="D313" s="43" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11471,13 +11142,13 @@
       <c r="A314" s="43" t="n">
         <v>313</v>
       </c>
-      <c r="C314" s="46" t="n">
+      <c r="B314" s="45" t="n">
         <v>10.5</v>
       </c>
-      <c r="D314" s="46" t="n">
+      <c r="C314" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E314" s="43" t="s">
+      <c r="D314" s="43" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11485,13 +11156,13 @@
       <c r="A315" s="43" t="n">
         <v>314</v>
       </c>
-      <c r="C315" s="46" t="n">
+      <c r="B315" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="D315" s="46" t="n">
+      <c r="C315" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E315" s="43" t="s">
+      <c r="D315" s="43" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11499,16 +11170,13 @@
       <c r="A316" s="43" t="n">
         <v>315</v>
       </c>
-      <c r="B316" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C316" s="46" t="n">
+      <c r="B316" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="D316" s="46" t="n">
+      <c r="C316" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="E316" s="43" t="s">
+      <c r="D316" s="43" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11516,13 +11184,13 @@
       <c r="A317" s="43" t="n">
         <v>316</v>
       </c>
-      <c r="C317" s="46" t="n">
+      <c r="B317" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D317" s="46" t="n">
+      <c r="C317" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E317" s="43" t="s">
+      <c r="D317" s="43" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11530,13 +11198,13 @@
       <c r="A318" s="43" t="n">
         <v>317</v>
       </c>
-      <c r="C318" s="46" t="n">
+      <c r="B318" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="D318" s="46" t="n">
+      <c r="C318" s="45" t="n">
         <v>7.5</v>
       </c>
-      <c r="E318" s="43" t="s">
+      <c r="D318" s="43" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11544,16 +11212,13 @@
       <c r="A319" s="43" t="n">
         <v>318</v>
       </c>
-      <c r="B319" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C319" s="46" t="n">
+      <c r="B319" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="D319" s="46" t="n">
+      <c r="C319" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="E319" s="43" t="s">
+      <c r="D319" s="43" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11561,13 +11226,13 @@
       <c r="A320" s="43" t="n">
         <v>319</v>
       </c>
-      <c r="C320" s="46" t="n">
+      <c r="B320" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="D320" s="46" t="n">
+      <c r="C320" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="E320" s="43" t="s">
+      <c r="D320" s="43" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11575,13 +11240,13 @@
       <c r="A321" s="43" t="n">
         <v>320</v>
       </c>
-      <c r="C321" s="46" t="n">
+      <c r="B321" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="D321" s="46" t="n">
+      <c r="C321" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="E321" s="43" t="s">
+      <c r="D321" s="43" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11589,16 +11254,13 @@
       <c r="A322" s="43" t="n">
         <v>321</v>
       </c>
-      <c r="B322" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C322" s="46" t="n">
+      <c r="B322" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="D322" s="46" t="n">
+      <c r="C322" s="45" t="n">
         <v>6.5</v>
       </c>
-      <c r="E322" s="43" t="s">
+      <c r="D322" s="43" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11606,13 +11268,13 @@
       <c r="A323" s="43" t="n">
         <v>322</v>
       </c>
-      <c r="C323" s="46" t="n">
+      <c r="B323" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D323" s="46" t="n">
+      <c r="C323" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="E323" s="43" t="s">
+      <c r="D323" s="43" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11620,13 +11282,13 @@
       <c r="A324" s="43" t="n">
         <v>323</v>
       </c>
-      <c r="C324" s="46" t="n">
+      <c r="B324" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="D324" s="46" t="n">
+      <c r="C324" s="45" t="n">
         <v>6.5</v>
       </c>
-      <c r="E324" s="43" t="s">
+      <c r="D324" s="43" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11634,16 +11296,13 @@
       <c r="A325" s="43" t="n">
         <v>324</v>
       </c>
-      <c r="B325" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C325" s="46" t="n">
+      <c r="B325" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="D325" s="46" t="n">
+      <c r="C325" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="E325" s="43" t="s">
+      <c r="D325" s="43" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11651,13 +11310,13 @@
       <c r="A326" s="43" t="n">
         <v>325</v>
       </c>
-      <c r="C326" s="46" t="n">
+      <c r="B326" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D326" s="46" t="n">
+      <c r="C326" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E326" s="43" t="s">
+      <c r="D326" s="43" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11665,13 +11324,13 @@
       <c r="A327" s="43" t="n">
         <v>326</v>
       </c>
-      <c r="C327" s="46" t="n">
+      <c r="B327" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="D327" s="46" t="n">
+      <c r="C327" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="E327" s="43" t="s">
+      <c r="D327" s="43" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11679,16 +11338,13 @@
       <c r="A328" s="43" t="n">
         <v>327</v>
       </c>
-      <c r="B328" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C328" s="46" t="n">
+      <c r="B328" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="D328" s="46" t="n">
+      <c r="C328" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="E328" s="43" t="s">
+      <c r="D328" s="43" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11696,13 +11352,13 @@
       <c r="A329" s="43" t="n">
         <v>328</v>
       </c>
-      <c r="C329" s="46" t="n">
+      <c r="B329" s="45" t="n">
         <v>18</v>
       </c>
-      <c r="D329" s="46" t="n">
+      <c r="C329" s="45" t="n">
         <v>6</v>
       </c>
-      <c r="E329" s="43" t="s">
+      <c r="D329" s="43" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11710,13 +11366,13 @@
       <c r="A330" s="43" t="n">
         <v>329</v>
       </c>
-      <c r="C330" s="46" t="n">
+      <c r="B330" s="45" t="n">
         <v>16.5</v>
       </c>
-      <c r="D330" s="46" t="n">
+      <c r="C330" s="45" t="n">
         <v>7.5</v>
       </c>
-      <c r="E330" s="43" t="s">
+      <c r="D330" s="43" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11724,16 +11380,13 @@
       <c r="A331" s="43" t="n">
         <v>330</v>
       </c>
-      <c r="B331" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C331" s="46" t="n">
+      <c r="B331" s="45" t="n">
         <v>18.5</v>
       </c>
-      <c r="D331" s="46" t="n">
+      <c r="C331" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E331" s="43" t="s">
+      <c r="D331" s="43" t="s">
         <v>33</v>
       </c>
     </row>
@@ -11741,13 +11394,13 @@
       <c r="A332" s="43" t="n">
         <v>331</v>
       </c>
-      <c r="C332" s="46" t="n">
+      <c r="B332" s="45" t="n">
         <v>9.5</v>
       </c>
-      <c r="D332" s="46" t="n">
+      <c r="C332" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="E332" s="43" t="s">
+      <c r="D332" s="43" t="s">
         <v>33</v>
       </c>
     </row>
@@ -11755,13 +11408,13 @@
       <c r="A333" s="43" t="n">
         <v>332</v>
       </c>
-      <c r="C333" s="46" t="n">
+      <c r="B333" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="D333" s="46" t="n">
+      <c r="C333" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E333" s="43" t="s">
+      <c r="D333" s="43" t="s">
         <v>33</v>
       </c>
     </row>
@@ -11769,16 +11422,13 @@
       <c r="A334" s="43" t="n">
         <v>333</v>
       </c>
-      <c r="B334" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C334" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D334" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E334" s="43" t="s">
+      <c r="B334" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C334" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D334" s="43" t="s">
         <v>33</v>
       </c>
     </row>
@@ -11786,13 +11436,13 @@
       <c r="A335" s="43" t="n">
         <v>334</v>
       </c>
-      <c r="C335" s="46" t="n">
+      <c r="B335" s="45" t="n">
         <v>18</v>
       </c>
-      <c r="D335" s="46" t="n">
+      <c r="C335" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="E335" s="43" t="s">
+      <c r="D335" s="43" t="s">
         <v>33</v>
       </c>
     </row>
@@ -11800,13 +11450,13 @@
       <c r="A336" s="43" t="n">
         <v>335</v>
       </c>
-      <c r="C336" s="46" t="n">
+      <c r="B336" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="D336" s="46" t="n">
+      <c r="C336" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="E336" s="43" t="s">
+      <c r="D336" s="43" t="s">
         <v>33</v>
       </c>
     </row>
@@ -11814,16 +11464,13 @@
       <c r="A337" s="43" t="n">
         <v>336</v>
       </c>
-      <c r="B337" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C337" s="46" t="n">
+      <c r="B337" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="D337" s="46" t="n">
+      <c r="C337" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="E337" s="43" t="s">
+      <c r="D337" s="43" t="s">
         <v>33</v>
       </c>
     </row>
@@ -11831,13 +11478,13 @@
       <c r="A338" s="43" t="n">
         <v>337</v>
       </c>
-      <c r="C338" s="46" t="n">
+      <c r="B338" s="45" t="n">
         <v>9.5</v>
       </c>
-      <c r="D338" s="46" t="n">
+      <c r="C338" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="E338" s="43" t="s">
+      <c r="D338" s="43" t="s">
         <v>33</v>
       </c>
     </row>
@@ -11845,13 +11492,13 @@
       <c r="A339" s="43" t="n">
         <v>338</v>
       </c>
-      <c r="C339" s="46" t="n">
+      <c r="B339" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D339" s="46" t="n">
+      <c r="C339" s="45" t="n">
         <v>18</v>
       </c>
-      <c r="E339" s="43" t="s">
+      <c r="D339" s="43" t="s">
         <v>33</v>
       </c>
     </row>
@@ -11859,16 +11506,13 @@
       <c r="A340" s="43" t="n">
         <v>339</v>
       </c>
-      <c r="B340" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C340" s="46" t="n">
+      <c r="B340" s="45" t="n">
         <v>8.5</v>
       </c>
-      <c r="D340" s="46" t="n">
+      <c r="C340" s="45" t="n">
         <v>4.5</v>
       </c>
-      <c r="E340" s="43" t="s">
+      <c r="D340" s="43" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11876,13 +11520,13 @@
       <c r="A341" s="43" t="n">
         <v>340</v>
       </c>
-      <c r="C341" s="46" t="n">
+      <c r="B341" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D341" s="46" t="n">
+      <c r="C341" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E341" s="43" t="s">
+      <c r="D341" s="43" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11890,13 +11534,13 @@
       <c r="A342" s="43" t="n">
         <v>341</v>
       </c>
-      <c r="C342" s="46" t="n">
+      <c r="B342" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="D342" s="46" t="n">
+      <c r="C342" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="E342" s="43" t="s">
+      <c r="D342" s="43" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11904,16 +11548,13 @@
       <c r="A343" s="43" t="n">
         <v>342</v>
       </c>
-      <c r="B343" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C343" s="46" t="n">
+      <c r="B343" s="45" t="n">
         <v>6</v>
       </c>
-      <c r="D343" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E343" s="43" t="s">
+      <c r="C343" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D343" s="43" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11921,13 +11562,13 @@
       <c r="A344" s="43" t="n">
         <v>343</v>
       </c>
-      <c r="C344" s="46" t="n">
+      <c r="B344" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D344" s="46" t="n">
+      <c r="C344" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E344" s="43" t="s">
+      <c r="D344" s="43" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11935,13 +11576,13 @@
       <c r="A345" s="43" t="n">
         <v>344</v>
       </c>
-      <c r="C345" s="46" t="n">
+      <c r="B345" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D345" s="46" t="n">
+      <c r="C345" s="45" t="n">
         <v>6</v>
       </c>
-      <c r="E345" s="43" t="s">
+      <c r="D345" s="43" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11949,16 +11590,13 @@
       <c r="A346" s="43" t="n">
         <v>345</v>
       </c>
-      <c r="B346" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C346" s="46" t="n">
+      <c r="B346" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="D346" s="46" t="n">
+      <c r="C346" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="E346" s="43" t="s">
+      <c r="D346" s="43" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11966,13 +11604,13 @@
       <c r="A347" s="43" t="n">
         <v>346</v>
       </c>
-      <c r="C347" s="46" t="n">
+      <c r="B347" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D347" s="46" t="n">
+      <c r="C347" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="E347" s="43" t="s">
+      <c r="D347" s="43" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11980,13 +11618,13 @@
       <c r="A348" s="43" t="n">
         <v>347</v>
       </c>
-      <c r="C348" s="46" t="n">
+      <c r="B348" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="D348" s="46" t="n">
+      <c r="C348" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="E348" s="43" t="s">
+      <c r="D348" s="43" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11994,16 +11632,13 @@
       <c r="A349" s="43" t="n">
         <v>348</v>
       </c>
-      <c r="B349" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C349" s="46" t="n">
+      <c r="B349" s="45" t="n">
         <v>16.5</v>
       </c>
-      <c r="D349" s="46" t="n">
+      <c r="C349" s="45" t="n">
         <v>9.5</v>
       </c>
-      <c r="E349" s="43" t="s">
+      <c r="D349" s="43" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12011,13 +11646,13 @@
       <c r="A350" s="43" t="n">
         <v>349</v>
       </c>
-      <c r="C350" s="46" t="n">
+      <c r="B350" s="45" t="n">
         <v>7.5</v>
       </c>
-      <c r="D350" s="46" t="n">
+      <c r="C350" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="E350" s="43" t="s">
+      <c r="D350" s="43" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12025,13 +11660,13 @@
       <c r="A351" s="43" t="n">
         <v>350</v>
       </c>
-      <c r="C351" s="46" t="n">
+      <c r="B351" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="D351" s="46" t="n">
+      <c r="C351" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="E351" s="43" t="s">
+      <c r="D351" s="43" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12039,16 +11674,13 @@
       <c r="A352" s="43" t="n">
         <v>351</v>
       </c>
-      <c r="B352" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C352" s="46" t="n">
+      <c r="B352" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="D352" s="46" t="n">
+      <c r="C352" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="E352" s="43" t="s">
+      <c r="D352" s="43" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12056,13 +11688,13 @@
       <c r="A353" s="43" t="n">
         <v>352</v>
       </c>
-      <c r="C353" s="46" t="n">
+      <c r="B353" s="45" t="n">
         <v>18</v>
       </c>
-      <c r="D353" s="46" t="n">
+      <c r="C353" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="E353" s="43" t="s">
+      <c r="D353" s="43" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12070,13 +11702,13 @@
       <c r="A354" s="43" t="n">
         <v>353</v>
       </c>
-      <c r="C354" s="46" t="n">
+      <c r="B354" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="D354" s="46" t="n">
+      <c r="C354" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E354" s="43" t="s">
+      <c r="D354" s="43" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12084,16 +11716,13 @@
       <c r="A355" s="43" t="n">
         <v>354</v>
       </c>
-      <c r="B355" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C355" s="46" t="n">
+      <c r="B355" s="45" t="n">
         <v>18</v>
       </c>
-      <c r="D355" s="46" t="n">
+      <c r="C355" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="E355" s="43" t="s">
+      <c r="D355" s="43" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12101,13 +11730,13 @@
       <c r="A356" s="43" t="n">
         <v>355</v>
       </c>
-      <c r="C356" s="46" t="n">
+      <c r="B356" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="D356" s="46" t="n">
+      <c r="C356" s="45" t="n">
         <v>6</v>
       </c>
-      <c r="E356" s="43" t="s">
+      <c r="D356" s="43" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12115,13 +11744,13 @@
       <c r="A357" s="43" t="n">
         <v>356</v>
       </c>
-      <c r="C357" s="46" t="n">
+      <c r="B357" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="D357" s="46" t="n">
+      <c r="C357" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E357" s="43" t="s">
+      <c r="D357" s="43" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12129,16 +11758,13 @@
       <c r="A358" s="43" t="n">
         <v>357</v>
       </c>
-      <c r="B358" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C358" s="46" t="n">
+      <c r="B358" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="D358" s="46" t="n">
+      <c r="C358" s="45" t="n">
         <v>9.5</v>
       </c>
-      <c r="E358" s="43" t="s">
+      <c r="D358" s="43" t="s">
         <v>41</v>
       </c>
     </row>
@@ -12146,13 +11772,13 @@
       <c r="A359" s="43" t="n">
         <v>358</v>
       </c>
-      <c r="C359" s="46" t="n">
+      <c r="B359" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D359" s="46" t="n">
+      <c r="C359" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E359" s="43" t="s">
+      <c r="D359" s="43" t="s">
         <v>41</v>
       </c>
     </row>
@@ -12160,13 +11786,13 @@
       <c r="A360" s="43" t="n">
         <v>359</v>
       </c>
-      <c r="C360" s="46" t="n">
+      <c r="B360" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D360" s="46" t="n">
+      <c r="C360" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="E360" s="43" t="s">
+      <c r="D360" s="43" t="s">
         <v>41</v>
       </c>
     </row>
@@ -12174,16 +11800,13 @@
       <c r="A361" s="43" t="n">
         <v>360</v>
       </c>
-      <c r="B361" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C361" s="46" t="n">
+      <c r="B361" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D361" s="46" t="n">
+      <c r="C361" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="E361" s="43" t="s">
+      <c r="D361" s="43" t="s">
         <v>41</v>
       </c>
     </row>
@@ -12191,13 +11814,13 @@
       <c r="A362" s="43" t="n">
         <v>361</v>
       </c>
-      <c r="C362" s="46" t="n">
+      <c r="B362" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D362" s="46" t="n">
+      <c r="C362" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="E362" s="43" t="s">
+      <c r="D362" s="43" t="s">
         <v>41</v>
       </c>
     </row>
@@ -12205,13 +11828,13 @@
       <c r="A363" s="43" t="n">
         <v>362</v>
       </c>
-      <c r="C363" s="46" t="n">
+      <c r="B363" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="D363" s="46" t="n">
+      <c r="C363" s="45" t="n">
         <v>7.5</v>
       </c>
-      <c r="E363" s="43" t="s">
+      <c r="D363" s="43" t="s">
         <v>41</v>
       </c>
     </row>
@@ -12219,16 +11842,13 @@
       <c r="A364" s="43" t="n">
         <v>363</v>
       </c>
-      <c r="B364" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C364" s="46" t="n">
+      <c r="B364" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="D364" s="46" t="n">
+      <c r="C364" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="E364" s="43" t="s">
+      <c r="D364" s="43" t="s">
         <v>41</v>
       </c>
     </row>
@@ -12236,13 +11856,13 @@
       <c r="A365" s="43" t="n">
         <v>364</v>
       </c>
-      <c r="C365" s="46" t="n">
+      <c r="B365" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="D365" s="46" t="n">
+      <c r="C365" s="45" t="n">
         <v>7.5</v>
       </c>
-      <c r="E365" s="43" t="s">
+      <c r="D365" s="43" t="s">
         <v>41</v>
       </c>
     </row>
@@ -12250,13 +11870,13 @@
       <c r="A366" s="43" t="n">
         <v>365</v>
       </c>
-      <c r="C366" s="46" t="n">
+      <c r="B366" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="D366" s="46" t="n">
+      <c r="C366" s="45" t="n">
         <v>8.5</v>
       </c>
-      <c r="E366" s="43" t="s">
+      <c r="D366" s="43" t="s">
         <v>41</v>
       </c>
     </row>
@@ -12264,16 +11884,13 @@
       <c r="A367" s="43" t="n">
         <v>366</v>
       </c>
-      <c r="B367" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C367" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D367" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E367" s="43" t="s">
+      <c r="B367" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C367" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D367" s="43" t="s">
         <v>43</v>
       </c>
     </row>
@@ -12281,13 +11898,13 @@
       <c r="A368" s="43" t="n">
         <v>367</v>
       </c>
-      <c r="C368" s="46" t="n">
+      <c r="B368" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="D368" s="46" t="n">
+      <c r="C368" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E368" s="43" t="s">
+      <c r="D368" s="43" t="s">
         <v>43</v>
       </c>
     </row>
@@ -12295,13 +11912,13 @@
       <c r="A369" s="43" t="n">
         <v>368</v>
       </c>
-      <c r="C369" s="46" t="n">
+      <c r="B369" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D369" s="46" t="n">
+      <c r="C369" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="E369" s="43" t="s">
+      <c r="D369" s="43" t="s">
         <v>43</v>
       </c>
     </row>
@@ -12309,16 +11926,13 @@
       <c r="A370" s="43" t="n">
         <v>369</v>
       </c>
-      <c r="B370" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C370" s="46" t="n">
+      <c r="B370" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D370" s="46" t="n">
+      <c r="C370" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E370" s="43" t="s">
+      <c r="D370" s="43" t="s">
         <v>43</v>
       </c>
     </row>
@@ -12326,13 +11940,13 @@
       <c r="A371" s="43" t="n">
         <v>370</v>
       </c>
-      <c r="C371" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D371" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E371" s="43" t="s">
+      <c r="B371" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C371" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D371" s="43" t="s">
         <v>43</v>
       </c>
     </row>
@@ -12340,13 +11954,13 @@
       <c r="A372" s="43" t="n">
         <v>371</v>
       </c>
-      <c r="C372" s="46" t="n">
+      <c r="B372" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="D372" s="46" t="n">
+      <c r="C372" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E372" s="43" t="s">
+      <c r="D372" s="43" t="s">
         <v>43</v>
       </c>
     </row>
@@ -12354,16 +11968,13 @@
       <c r="A373" s="43" t="n">
         <v>372</v>
       </c>
-      <c r="B373" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C373" s="46" t="n">
+      <c r="B373" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D373" s="46" t="n">
+      <c r="C373" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="E373" s="43" t="s">
+      <c r="D373" s="43" t="s">
         <v>43</v>
       </c>
     </row>
@@ -12371,13 +11982,13 @@
       <c r="A374" s="43" t="n">
         <v>373</v>
       </c>
-      <c r="C374" s="46" t="n">
+      <c r="B374" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D374" s="46" t="n">
+      <c r="C374" s="45" t="n">
         <v>8.5</v>
       </c>
-      <c r="E374" s="43" t="s">
+      <c r="D374" s="43" t="s">
         <v>43</v>
       </c>
     </row>
@@ -12385,13 +11996,13 @@
       <c r="A375" s="43" t="n">
         <v>374</v>
       </c>
-      <c r="C375" s="46" t="n">
+      <c r="B375" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D375" s="46" t="n">
+      <c r="C375" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="E375" s="43" t="s">
+      <c r="D375" s="43" t="s">
         <v>43</v>
       </c>
     </row>
@@ -12399,16 +12010,13 @@
       <c r="A376" s="43" t="n">
         <v>375</v>
       </c>
-      <c r="B376" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C376" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D376" s="46" t="n">
+      <c r="B376" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C376" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="E376" s="43" t="s">
+      <c r="D376" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12416,13 +12024,13 @@
       <c r="A377" s="43" t="n">
         <v>376</v>
       </c>
-      <c r="C377" s="46" t="n">
+      <c r="B377" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D377" s="46" t="n">
+      <c r="C377" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E377" s="43" t="s">
+      <c r="D377" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12430,13 +12038,13 @@
       <c r="A378" s="43" t="n">
         <v>377</v>
       </c>
-      <c r="C378" s="46" t="n">
+      <c r="B378" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="D378" s="46" t="n">
+      <c r="C378" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E378" s="43" t="s">
+      <c r="D378" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12444,16 +12052,13 @@
       <c r="A379" s="43" t="n">
         <v>378</v>
       </c>
-      <c r="B379" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C379" s="46" t="n">
+      <c r="B379" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="D379" s="46" t="n">
+      <c r="C379" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="E379" s="43" t="s">
+      <c r="D379" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12461,13 +12066,13 @@
       <c r="A380" s="43" t="n">
         <v>379</v>
       </c>
-      <c r="C380" s="46" t="n">
+      <c r="B380" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="D380" s="46" t="n">
+      <c r="C380" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E380" s="43" t="s">
+      <c r="D380" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12475,13 +12080,13 @@
       <c r="A381" s="43" t="n">
         <v>380</v>
       </c>
-      <c r="C381" s="46" t="n">
+      <c r="B381" s="45" t="n">
         <v>16.5</v>
       </c>
-      <c r="D381" s="46" t="n">
+      <c r="C381" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="E381" s="43" t="s">
+      <c r="D381" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12489,16 +12094,13 @@
       <c r="A382" s="43" t="n">
         <v>381</v>
       </c>
-      <c r="B382" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C382" s="46" t="n">
+      <c r="B382" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="D382" s="46" t="n">
+      <c r="C382" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="E382" s="43" t="s">
+      <c r="D382" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12506,13 +12108,13 @@
       <c r="A383" s="43" t="n">
         <v>382</v>
       </c>
-      <c r="C383" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D383" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E383" s="43" t="s">
+      <c r="B383" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C383" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D383" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12520,13 +12122,13 @@
       <c r="A384" s="43" t="n">
         <v>383</v>
       </c>
-      <c r="C384" s="46" t="n">
+      <c r="B384" s="45" t="n">
         <v>17.5</v>
       </c>
-      <c r="D384" s="46" t="n">
+      <c r="C384" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E384" s="43" t="s">
+      <c r="D384" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12534,16 +12136,13 @@
       <c r="A385" s="43" t="n">
         <v>384</v>
       </c>
-      <c r="B385" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C385" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D385" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E385" s="43" t="s">
+      <c r="B385" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C385" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D385" s="43" t="s">
         <v>47</v>
       </c>
     </row>
@@ -12551,13 +12150,13 @@
       <c r="A386" s="43" t="n">
         <v>385</v>
       </c>
-      <c r="C386" s="46" t="n">
+      <c r="B386" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D386" s="46" t="n">
+      <c r="C386" s="45" t="n">
         <v>10.5</v>
       </c>
-      <c r="E386" s="43" t="s">
+      <c r="D386" s="43" t="s">
         <v>47</v>
       </c>
     </row>
@@ -12565,13 +12164,13 @@
       <c r="A387" s="43" t="n">
         <v>386</v>
       </c>
-      <c r="C387" s="46" t="n">
+      <c r="B387" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="D387" s="46" t="n">
+      <c r="C387" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="E387" s="43" t="s">
+      <c r="D387" s="43" t="s">
         <v>47</v>
       </c>
     </row>
@@ -12579,16 +12178,13 @@
       <c r="A388" s="43" t="n">
         <v>387</v>
       </c>
-      <c r="B388" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C388" s="46" t="n">
+      <c r="B388" s="45" t="n">
         <v>9.5</v>
       </c>
-      <c r="D388" s="46" t="n">
+      <c r="C388" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="E388" s="43" t="s">
+      <c r="D388" s="43" t="s">
         <v>47</v>
       </c>
     </row>
@@ -12596,13 +12192,13 @@
       <c r="A389" s="43" t="n">
         <v>388</v>
       </c>
-      <c r="C389" s="46" t="n">
+      <c r="B389" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="D389" s="46" t="n">
+      <c r="C389" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E389" s="43" t="s">
+      <c r="D389" s="43" t="s">
         <v>47</v>
       </c>
     </row>
@@ -12610,13 +12206,13 @@
       <c r="A390" s="43" t="n">
         <v>389</v>
       </c>
-      <c r="C390" s="46" t="n">
+      <c r="B390" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D390" s="46" t="n">
+      <c r="C390" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="E390" s="43" t="s">
+      <c r="D390" s="43" t="s">
         <v>47</v>
       </c>
     </row>
@@ -12624,16 +12220,13 @@
       <c r="A391" s="43" t="n">
         <v>390</v>
       </c>
-      <c r="B391" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C391" s="46" t="n">
+      <c r="B391" s="45" t="n">
         <v>18.5</v>
       </c>
-      <c r="D391" s="46" t="n">
+      <c r="C391" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="E391" s="43" t="s">
+      <c r="D391" s="43" t="s">
         <v>47</v>
       </c>
     </row>
@@ -12641,13 +12234,13 @@
       <c r="A392" s="43" t="n">
         <v>391</v>
       </c>
-      <c r="C392" s="46" t="n">
+      <c r="B392" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="D392" s="46" t="n">
+      <c r="C392" s="45" t="n">
         <v>8.5</v>
       </c>
-      <c r="E392" s="43" t="s">
+      <c r="D392" s="43" t="s">
         <v>47</v>
       </c>
     </row>
@@ -12655,13 +12248,13 @@
       <c r="A393" s="43" t="n">
         <v>392</v>
       </c>
-      <c r="C393" s="46" t="n">
+      <c r="B393" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="D393" s="46" t="n">
+      <c r="C393" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E393" s="43" t="s">
+      <c r="D393" s="43" t="s">
         <v>47</v>
       </c>
     </row>
@@ -12669,16 +12262,13 @@
       <c r="A394" s="43" t="n">
         <v>393</v>
       </c>
-      <c r="B394" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C394" s="46" t="n">
+      <c r="B394" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D394" s="46" t="n">
+      <c r="C394" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E394" s="43" t="s">
+      <c r="D394" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12686,13 +12276,13 @@
       <c r="A395" s="43" t="n">
         <v>394</v>
       </c>
-      <c r="C395" s="46" t="n">
+      <c r="B395" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="D395" s="46" t="n">
+      <c r="C395" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="E395" s="43" t="s">
+      <c r="D395" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12700,13 +12290,13 @@
       <c r="A396" s="43" t="n">
         <v>395</v>
       </c>
-      <c r="C396" s="46" t="n">
+      <c r="B396" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="D396" s="46" t="n">
+      <c r="C396" s="45" t="n">
         <v>9.5</v>
       </c>
-      <c r="E396" s="43" t="s">
+      <c r="D396" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12714,16 +12304,13 @@
       <c r="A397" s="43" t="n">
         <v>396</v>
       </c>
-      <c r="B397" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C397" s="46" t="n">
+      <c r="B397" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D397" s="46" t="n">
+      <c r="C397" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E397" s="43" t="s">
+      <c r="D397" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12731,13 +12318,13 @@
       <c r="A398" s="43" t="n">
         <v>397</v>
       </c>
-      <c r="C398" s="46" t="n">
+      <c r="B398" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="D398" s="46" t="n">
+      <c r="C398" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E398" s="43" t="s">
+      <c r="D398" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12745,13 +12332,13 @@
       <c r="A399" s="43" t="n">
         <v>398</v>
       </c>
-      <c r="C399" s="46" t="n">
+      <c r="B399" s="45" t="n">
         <v>16.5</v>
       </c>
-      <c r="D399" s="46" t="n">
+      <c r="C399" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="E399" s="43" t="s">
+      <c r="D399" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12759,16 +12346,13 @@
       <c r="A400" s="43" t="n">
         <v>399</v>
       </c>
-      <c r="B400" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C400" s="46" t="n">
+      <c r="B400" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D400" s="46" t="n">
+      <c r="C400" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="E400" s="43" t="s">
+      <c r="D400" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12776,13 +12360,13 @@
       <c r="A401" s="43" t="n">
         <v>400</v>
       </c>
-      <c r="C401" s="46" t="n">
+      <c r="B401" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="D401" s="46" t="n">
+      <c r="C401" s="45" t="n">
         <v>19</v>
       </c>
-      <c r="E401" s="43" t="s">
+      <c r="D401" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12790,13 +12374,13 @@
       <c r="A402" s="43" t="n">
         <v>401</v>
       </c>
-      <c r="C402" s="46" t="n">
+      <c r="B402" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="D402" s="46" t="n">
+      <c r="C402" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E402" s="43" t="s">
+      <c r="D402" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12804,16 +12388,13 @@
       <c r="A403" s="43" t="n">
         <v>402</v>
       </c>
-      <c r="B403" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C403" s="46" t="n">
+      <c r="B403" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D403" s="46" t="n">
+      <c r="C403" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E403" s="43" t="s">
+      <c r="D403" s="43" t="s">
         <v>51</v>
       </c>
     </row>
@@ -12821,13 +12402,13 @@
       <c r="A404" s="43" t="n">
         <v>403</v>
       </c>
-      <c r="C404" s="46" t="n">
+      <c r="B404" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D404" s="46" t="n">
+      <c r="C404" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E404" s="43" t="s">
+      <c r="D404" s="43" t="s">
         <v>51</v>
       </c>
     </row>
@@ -12835,13 +12416,13 @@
       <c r="A405" s="43" t="n">
         <v>404</v>
       </c>
-      <c r="C405" s="46" t="n">
+      <c r="B405" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="D405" s="46" t="n">
+      <c r="C405" s="45" t="n">
         <v>9.5</v>
       </c>
-      <c r="E405" s="43" t="s">
+      <c r="D405" s="43" t="s">
         <v>51</v>
       </c>
     </row>
@@ -12849,16 +12430,13 @@
       <c r="A406" s="43" t="n">
         <v>405</v>
       </c>
-      <c r="B406" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C406" s="46" t="n">
+      <c r="B406" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="D406" s="46" t="n">
+      <c r="C406" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="E406" s="43" t="s">
+      <c r="D406" s="43" t="s">
         <v>51</v>
       </c>
     </row>
@@ -12866,13 +12444,13 @@
       <c r="A407" s="43" t="n">
         <v>406</v>
       </c>
-      <c r="C407" s="46" t="n">
+      <c r="B407" s="45" t="n">
         <v>16.5</v>
       </c>
-      <c r="D407" s="46" t="n">
+      <c r="C407" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="E407" s="43" t="s">
+      <c r="D407" s="43" t="s">
         <v>51</v>
       </c>
     </row>
@@ -12880,13 +12458,13 @@
       <c r="A408" s="43" t="n">
         <v>407</v>
       </c>
-      <c r="C408" s="46" t="n">
+      <c r="B408" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D408" s="46" t="n">
+      <c r="C408" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E408" s="43" t="s">
+      <c r="D408" s="43" t="s">
         <v>51</v>
       </c>
     </row>
@@ -12894,16 +12472,13 @@
       <c r="A409" s="43" t="n">
         <v>408</v>
       </c>
-      <c r="B409" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C409" s="46" t="n">
+      <c r="B409" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="D409" s="46" t="n">
+      <c r="C409" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="E409" s="43" t="s">
+      <c r="D409" s="43" t="s">
         <v>51</v>
       </c>
     </row>
@@ -12911,13 +12486,13 @@
       <c r="A410" s="43" t="n">
         <v>409</v>
       </c>
-      <c r="C410" s="46" t="n">
+      <c r="B410" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="D410" s="46" t="n">
+      <c r="C410" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="E410" s="43" t="s">
+      <c r="D410" s="43" t="s">
         <v>51</v>
       </c>
     </row>
@@ -12925,13 +12500,13 @@
       <c r="A411" s="43" t="n">
         <v>410</v>
       </c>
-      <c r="C411" s="46" t="n">
+      <c r="B411" s="45" t="n">
         <v>17.5</v>
       </c>
-      <c r="D411" s="46" t="n">
+      <c r="C411" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="E411" s="43" t="s">
+      <c r="D411" s="43" t="s">
         <v>51</v>
       </c>
     </row>
@@ -12939,16 +12514,13 @@
       <c r="A412" s="43" t="n">
         <v>411</v>
       </c>
-      <c r="B412" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C412" s="46" t="n">
+      <c r="B412" s="45" t="n">
         <v>17.5</v>
       </c>
-      <c r="D412" s="46" t="n">
+      <c r="C412" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E412" s="43" t="s">
+      <c r="D412" s="43" t="s">
         <v>53</v>
       </c>
     </row>
@@ -12956,13 +12528,13 @@
       <c r="A413" s="43" t="n">
         <v>412</v>
       </c>
-      <c r="C413" s="46" t="n">
+      <c r="B413" s="45" t="n">
         <v>8.5</v>
       </c>
-      <c r="D413" s="46" t="n">
+      <c r="C413" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="E413" s="43" t="s">
+      <c r="D413" s="43" t="s">
         <v>53</v>
       </c>
     </row>
@@ -12970,13 +12542,13 @@
       <c r="A414" s="43" t="n">
         <v>413</v>
       </c>
-      <c r="C414" s="46" t="n">
+      <c r="B414" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D414" s="46" t="n">
+      <c r="C414" s="45" t="n">
         <v>7.5</v>
       </c>
-      <c r="E414" s="43" t="s">
+      <c r="D414" s="43" t="s">
         <v>53</v>
       </c>
     </row>
@@ -12984,16 +12556,13 @@
       <c r="A415" s="43" t="n">
         <v>414</v>
       </c>
-      <c r="B415" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C415" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D415" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E415" s="43" t="s">
+      <c r="B415" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C415" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D415" s="43" t="s">
         <v>53</v>
       </c>
     </row>
@@ -13001,13 +12570,13 @@
       <c r="A416" s="43" t="n">
         <v>415</v>
       </c>
-      <c r="C416" s="46" t="n">
+      <c r="B416" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="D416" s="46" t="n">
+      <c r="C416" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="E416" s="43" t="s">
+      <c r="D416" s="43" t="s">
         <v>53</v>
       </c>
     </row>
@@ -13015,13 +12584,13 @@
       <c r="A417" s="43" t="n">
         <v>416</v>
       </c>
-      <c r="C417" s="46" t="n">
+      <c r="B417" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D417" s="46" t="n">
+      <c r="C417" s="45" t="n">
         <v>9.5</v>
       </c>
-      <c r="E417" s="43" t="s">
+      <c r="D417" s="43" t="s">
         <v>53</v>
       </c>
     </row>
@@ -13029,16 +12598,13 @@
       <c r="A418" s="43" t="n">
         <v>417</v>
       </c>
-      <c r="B418" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C418" s="46" t="n">
+      <c r="B418" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D418" s="46" t="n">
+      <c r="C418" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="E418" s="43" t="s">
+      <c r="D418" s="43" t="s">
         <v>53</v>
       </c>
     </row>
@@ -13046,13 +12612,13 @@
       <c r="A419" s="43" t="n">
         <v>418</v>
       </c>
-      <c r="C419" s="46" t="n">
+      <c r="B419" s="45" t="n">
         <v>17.5</v>
       </c>
-      <c r="D419" s="46" t="n">
+      <c r="C419" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="E419" s="43" t="s">
+      <c r="D419" s="43" t="s">
         <v>53</v>
       </c>
     </row>
@@ -13060,13 +12626,13 @@
       <c r="A420" s="43" t="n">
         <v>419</v>
       </c>
-      <c r="C420" s="46" t="n">
+      <c r="B420" s="45" t="n">
         <v>5.5</v>
       </c>
-      <c r="D420" s="46" t="n">
+      <c r="C420" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="E420" s="43" t="s">
+      <c r="D420" s="43" t="s">
         <v>53</v>
       </c>
     </row>
@@ -13074,16 +12640,13 @@
       <c r="A421" s="43" t="n">
         <v>420</v>
       </c>
-      <c r="B421" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C421" s="46" t="n">
+      <c r="B421" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="D421" s="46" t="n">
+      <c r="C421" s="45" t="n">
         <v>4.5</v>
       </c>
-      <c r="E421" s="43" t="s">
+      <c r="D421" s="43" t="s">
         <v>55</v>
       </c>
     </row>
@@ -13091,13 +12654,13 @@
       <c r="A422" s="43" t="n">
         <v>421</v>
       </c>
-      <c r="C422" s="46" t="n">
+      <c r="B422" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="D422" s="46" t="n">
+      <c r="C422" s="45" t="n">
         <v>5.5</v>
       </c>
-      <c r="E422" s="43" t="s">
+      <c r="D422" s="43" t="s">
         <v>55</v>
       </c>
     </row>
@@ -13105,13 +12668,13 @@
       <c r="A423" s="43" t="n">
         <v>422</v>
       </c>
-      <c r="C423" s="46" t="n">
+      <c r="B423" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="D423" s="46" t="n">
+      <c r="C423" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="E423" s="43" t="s">
+      <c r="D423" s="43" t="s">
         <v>55</v>
       </c>
     </row>
@@ -13119,16 +12682,13 @@
       <c r="A424" s="43" t="n">
         <v>423</v>
       </c>
-      <c r="B424" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C424" s="46" t="n">
+      <c r="B424" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D424" s="46" t="n">
+      <c r="C424" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E424" s="43" t="s">
+      <c r="D424" s="43" t="s">
         <v>55</v>
       </c>
     </row>
@@ -13136,13 +12696,13 @@
       <c r="A425" s="43" t="n">
         <v>424</v>
       </c>
-      <c r="C425" s="46" t="n">
+      <c r="B425" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="D425" s="46" t="n">
+      <c r="C425" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E425" s="43" t="s">
+      <c r="D425" s="43" t="s">
         <v>55</v>
       </c>
     </row>
@@ -13150,13 +12710,13 @@
       <c r="A426" s="43" t="n">
         <v>425</v>
       </c>
-      <c r="C426" s="46" t="n">
+      <c r="B426" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="D426" s="46" t="n">
+      <c r="C426" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="E426" s="43" t="s">
+      <c r="D426" s="43" t="s">
         <v>55</v>
       </c>
     </row>
@@ -13164,16 +12724,13 @@
       <c r="A427" s="43" t="n">
         <v>426</v>
       </c>
-      <c r="B427" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C427" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D427" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E427" s="43" t="s">
+      <c r="B427" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C427" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D427" s="43" t="s">
         <v>55</v>
       </c>
     </row>
@@ -13181,13 +12738,13 @@
       <c r="A428" s="43" t="n">
         <v>427</v>
       </c>
-      <c r="C428" s="46" t="n">
+      <c r="B428" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="D428" s="46" t="n">
+      <c r="C428" s="45" t="n">
         <v>7.5</v>
       </c>
-      <c r="E428" s="43" t="s">
+      <c r="D428" s="43" t="s">
         <v>55</v>
       </c>
     </row>
@@ -13195,13 +12752,13 @@
       <c r="A429" s="43" t="n">
         <v>428</v>
       </c>
-      <c r="C429" s="46" t="n">
+      <c r="B429" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="D429" s="46" t="n">
+      <c r="C429" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="E429" s="43" t="s">
+      <c r="D429" s="43" t="s">
         <v>55</v>
       </c>
     </row>
@@ -13209,16 +12766,13 @@
       <c r="A430" s="43" t="n">
         <v>429</v>
       </c>
-      <c r="B430" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C430" s="46" t="n">
+      <c r="B430" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="D430" s="46" t="n">
+      <c r="C430" s="45" t="n">
         <v>9.5</v>
       </c>
-      <c r="E430" s="43" t="s">
+      <c r="D430" s="43" t="s">
         <v>57</v>
       </c>
     </row>
@@ -13226,13 +12780,13 @@
       <c r="A431" s="43" t="n">
         <v>430</v>
       </c>
-      <c r="C431" s="46" t="n">
+      <c r="B431" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="D431" s="46" t="n">
+      <c r="C431" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="E431" s="43" t="s">
+      <c r="D431" s="43" t="s">
         <v>57</v>
       </c>
     </row>
@@ -13240,13 +12794,13 @@
       <c r="A432" s="43" t="n">
         <v>431</v>
       </c>
-      <c r="C432" s="46" t="n">
+      <c r="B432" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="D432" s="46" t="n">
+      <c r="C432" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="E432" s="43" t="s">
+      <c r="D432" s="43" t="s">
         <v>57</v>
       </c>
     </row>
@@ -13254,16 +12808,13 @@
       <c r="A433" s="43" t="n">
         <v>432</v>
       </c>
-      <c r="B433" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C433" s="46" t="n">
+      <c r="B433" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="D433" s="46" t="n">
+      <c r="C433" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="E433" s="43" t="s">
+      <c r="D433" s="43" t="s">
         <v>57</v>
       </c>
     </row>
@@ -13271,13 +12822,13 @@
       <c r="A434" s="43" t="n">
         <v>433</v>
       </c>
-      <c r="C434" s="46" t="n">
+      <c r="B434" s="45" t="n">
         <v>19</v>
       </c>
-      <c r="D434" s="46" t="n">
+      <c r="C434" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E434" s="43" t="s">
+      <c r="D434" s="43" t="s">
         <v>57</v>
       </c>
     </row>
@@ -13285,13 +12836,13 @@
       <c r="A435" s="43" t="n">
         <v>434</v>
       </c>
-      <c r="C435" s="46" t="n">
+      <c r="B435" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="D435" s="46" t="n">
+      <c r="C435" s="45" t="n">
         <v>20</v>
       </c>
-      <c r="E435" s="43" t="s">
+      <c r="D435" s="43" t="s">
         <v>57</v>
       </c>
     </row>
@@ -13299,16 +12850,13 @@
       <c r="A436" s="43" t="n">
         <v>435</v>
       </c>
-      <c r="B436" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C436" s="46" t="n">
+      <c r="B436" s="45" t="n">
         <v>16.5</v>
       </c>
-      <c r="D436" s="46" t="n">
+      <c r="C436" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="E436" s="43" t="s">
+      <c r="D436" s="43" t="s">
         <v>57</v>
       </c>
     </row>
@@ -13316,13 +12864,13 @@
       <c r="A437" s="43" t="n">
         <v>436</v>
       </c>
-      <c r="C437" s="46" t="n">
+      <c r="B437" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="D437" s="46" t="n">
+      <c r="C437" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="E437" s="43" t="s">
+      <c r="D437" s="43" t="s">
         <v>57</v>
       </c>
     </row>
@@ -13330,13 +12878,13 @@
       <c r="A438" s="43" t="n">
         <v>437</v>
       </c>
-      <c r="C438" s="46" t="n">
+      <c r="B438" s="45" t="n">
         <v>8.5</v>
       </c>
-      <c r="D438" s="46" t="n">
+      <c r="C438" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="E438" s="43" t="s">
+      <c r="D438" s="43" t="s">
         <v>57</v>
       </c>
     </row>
@@ -13344,16 +12892,13 @@
       <c r="A439" s="43" t="n">
         <v>438</v>
       </c>
-      <c r="B439" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C439" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D439" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E439" s="43" t="s">
+      <c r="B439" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C439" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D439" s="43" t="s">
         <v>58</v>
       </c>
     </row>
@@ -13361,13 +12906,13 @@
       <c r="A440" s="43" t="n">
         <v>439</v>
       </c>
-      <c r="C440" s="46" t="n">
+      <c r="B440" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="D440" s="46" t="n">
+      <c r="C440" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="E440" s="43" t="s">
+      <c r="D440" s="43" t="s">
         <v>58</v>
       </c>
     </row>
@@ -13375,13 +12920,13 @@
       <c r="A441" s="43" t="n">
         <v>440</v>
       </c>
-      <c r="C441" s="46" t="n">
+      <c r="B441" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="D441" s="46" t="n">
+      <c r="C441" s="45" t="n">
         <v>6.5</v>
       </c>
-      <c r="E441" s="43" t="s">
+      <c r="D441" s="43" t="s">
         <v>58</v>
       </c>
     </row>
@@ -13389,16 +12934,13 @@
       <c r="A442" s="43" t="n">
         <v>441</v>
       </c>
-      <c r="B442" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="C442" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D442" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E442" s="43" t="s">
+      <c r="B442" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C442" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D442" s="43" t="s">
         <v>72</v>
       </c>
     </row>
@@ -13406,13 +12948,13 @@
       <c r="A443" s="43" t="n">
         <v>442</v>
       </c>
-      <c r="C443" s="46" t="n">
+      <c r="B443" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="D443" s="46" t="n">
+      <c r="C443" s="45" t="n">
         <v>5.5</v>
       </c>
-      <c r="E443" s="43" t="s">
+      <c r="D443" s="43" t="s">
         <v>72</v>
       </c>
     </row>
@@ -13420,13 +12962,13 @@
       <c r="A444" s="43" t="n">
         <v>443</v>
       </c>
-      <c r="C444" s="46" t="n">
+      <c r="B444" s="45" t="n">
         <v>12.5</v>
       </c>
-      <c r="D444" s="46" t="n">
+      <c r="C444" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="E444" s="43" t="s">
+      <c r="D444" s="43" t="s">
         <v>72</v>
       </c>
     </row>
@@ -13434,16 +12976,13 @@
       <c r="A445" s="43" t="n">
         <v>444</v>
       </c>
-      <c r="B445" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="C445" s="46" t="n">
+      <c r="B445" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="D445" s="46" t="n">
+      <c r="C445" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="E445" s="43" t="s">
+      <c r="D445" s="43" t="s">
         <v>72</v>
       </c>
     </row>
@@ -13451,13 +12990,13 @@
       <c r="A446" s="43" t="n">
         <v>445</v>
       </c>
-      <c r="C446" s="46" t="n">
+      <c r="B446" s="45" t="n">
         <v>6</v>
       </c>
-      <c r="D446" s="46" t="n">
+      <c r="C446" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="E446" s="43" t="s">
+      <c r="D446" s="43" t="s">
         <v>72</v>
       </c>
     </row>
@@ -13465,13 +13004,13 @@
       <c r="A447" s="43" t="n">
         <v>446</v>
       </c>
-      <c r="C447" s="46" t="n">
+      <c r="B447" s="45" t="n">
         <v>10.5</v>
       </c>
-      <c r="D447" s="46" t="n">
+      <c r="C447" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="E447" s="43" t="s">
+      <c r="D447" s="43" t="s">
         <v>72</v>
       </c>
     </row>
@@ -13479,16 +13018,13 @@
       <c r="A448" s="43" t="n">
         <v>447</v>
       </c>
-      <c r="B448" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C448" s="46" t="n">
+      <c r="B448" s="45" t="n">
         <v>15.5</v>
       </c>
-      <c r="D448" s="46" t="n">
+      <c r="C448" s="45" t="n">
         <v>10.5</v>
       </c>
-      <c r="E448" s="43" t="s">
+      <c r="D448" s="43" t="s">
         <v>61</v>
       </c>
     </row>
@@ -13496,13 +13032,13 @@
       <c r="A449" s="43" t="n">
         <v>448</v>
       </c>
-      <c r="C449" s="46" t="n">
+      <c r="B449" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D449" s="46" t="n">
+      <c r="C449" s="45" t="n">
         <v>13.5</v>
       </c>
-      <c r="E449" s="43" t="s">
+      <c r="D449" s="43" t="s">
         <v>61</v>
       </c>
     </row>
@@ -13510,13 +13046,13 @@
       <c r="A450" s="43" t="n">
         <v>449</v>
       </c>
-      <c r="C450" s="46" t="n">
+      <c r="B450" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="D450" s="46" t="n">
+      <c r="C450" s="45" t="n">
         <v>8.5</v>
       </c>
-      <c r="E450" s="43" t="s">
+      <c r="D450" s="43" t="s">
         <v>61</v>
       </c>
     </row>
@@ -13524,16 +13060,13 @@
       <c r="A451" s="43" t="n">
         <v>450</v>
       </c>
-      <c r="B451" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C451" s="46" t="n">
+      <c r="B451" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="D451" s="46" t="n">
+      <c r="C451" s="45" t="n">
         <v>5.5</v>
       </c>
-      <c r="E451" s="43" t="s">
+      <c r="D451" s="43" t="s">
         <v>61</v>
       </c>
     </row>
@@ -13541,13 +13074,13 @@
       <c r="A452" s="43" t="n">
         <v>451</v>
       </c>
-      <c r="C452" s="46" t="n">
+      <c r="B452" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="D452" s="46" t="n">
+      <c r="C452" s="45" t="n">
         <v>3.5</v>
       </c>
-      <c r="E452" s="43" t="s">
+      <c r="D452" s="43" t="s">
         <v>61</v>
       </c>
     </row>
@@ -13555,13 +13088,13 @@
       <c r="A453" s="43" t="n">
         <v>452</v>
       </c>
-      <c r="C453" s="46" t="n">
+      <c r="B453" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="D453" s="46" t="n">
+      <c r="C453" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="E453" s="43" t="s">
+      <c r="D453" s="43" t="s">
         <v>61</v>
       </c>
     </row>
@@ -13569,16 +13102,13 @@
       <c r="A454" s="43" t="n">
         <v>453</v>
       </c>
-      <c r="B454" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C454" s="46" t="n">
+      <c r="B454" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="D454" s="46" t="n">
+      <c r="C454" s="45" t="n">
         <v>8.5</v>
       </c>
-      <c r="E454" s="43" t="s">
+      <c r="D454" s="43" t="s">
         <v>61</v>
       </c>
     </row>
@@ -13586,13 +13116,13 @@
       <c r="A455" s="43" t="n">
         <v>454</v>
       </c>
-      <c r="C455" s="46" t="n">
+      <c r="B455" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="D455" s="46" t="n">
+      <c r="C455" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E455" s="43" t="s">
+      <c r="D455" s="43" t="s">
         <v>61</v>
       </c>
     </row>
@@ -13600,13 +13130,13 @@
       <c r="A456" s="43" t="n">
         <v>455</v>
       </c>
-      <c r="C456" s="46" t="n">
+      <c r="B456" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="D456" s="46" t="n">
+      <c r="C456" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="E456" s="43" t="s">
+      <c r="D456" s="43" t="s">
         <v>61</v>
       </c>
     </row>
@@ -13614,16 +13144,13 @@
       <c r="A457" s="43" t="n">
         <v>456</v>
       </c>
-      <c r="B457" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C457" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D457" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E457" s="43" t="s">
+      <c r="B457" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C457" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D457" s="43" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13631,13 +13158,13 @@
       <c r="A458" s="43" t="n">
         <v>457</v>
       </c>
-      <c r="C458" s="46" t="n">
+      <c r="B458" s="45" t="n">
         <v>11.5</v>
       </c>
-      <c r="D458" s="46" t="n">
+      <c r="C458" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="E458" s="43" t="s">
+      <c r="D458" s="43" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13645,13 +13172,13 @@
       <c r="A459" s="43" t="n">
         <v>458</v>
       </c>
-      <c r="C459" s="46" t="n">
+      <c r="B459" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="D459" s="46" t="n">
+      <c r="C459" s="45" t="n">
         <v>3.5</v>
       </c>
-      <c r="E459" s="43" t="s">
+      <c r="D459" s="43" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13659,16 +13186,13 @@
       <c r="A460" s="43" t="n">
         <v>459</v>
       </c>
-      <c r="B460" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C460" s="46" t="n">
+      <c r="B460" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="D460" s="46" t="n">
+      <c r="C460" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="E460" s="43" t="s">
+      <c r="D460" s="43" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13676,13 +13200,13 @@
       <c r="A461" s="43" t="n">
         <v>460</v>
       </c>
-      <c r="C461" s="46" t="n">
+      <c r="B461" s="45" t="n">
         <v>4.5</v>
       </c>
-      <c r="D461" s="46" t="n">
+      <c r="C461" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="E461" s="43" t="s">
+      <c r="D461" s="43" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13690,13 +13214,13 @@
       <c r="A462" s="43" t="n">
         <v>461</v>
       </c>
-      <c r="C462" s="46" t="n">
+      <c r="B462" s="45" t="n">
         <v>14.5</v>
       </c>
-      <c r="D462" s="46" t="n">
+      <c r="C462" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="E462" s="43" t="s">
+      <c r="D462" s="43" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13704,16 +13228,13 @@
       <c r="A463" s="43" t="n">
         <v>462</v>
       </c>
-      <c r="B463" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C463" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D463" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E463" s="43" t="s">
+      <c r="B463" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C463" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D463" s="43" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13721,13 +13242,13 @@
       <c r="A464" s="43" t="n">
         <v>463</v>
       </c>
-      <c r="C464" s="46" t="n">
+      <c r="B464" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="D464" s="46" t="n">
+      <c r="C464" s="45" t="n">
         <v>5.5</v>
       </c>
-      <c r="E464" s="43" t="s">
+      <c r="D464" s="43" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13735,13 +13256,13 @@
       <c r="A465" s="43" t="n">
         <v>464</v>
       </c>
-      <c r="C465" s="46" t="n">
+      <c r="B465" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="D465" s="46" t="n">
+      <c r="C465" s="45" t="n">
         <v>8.5</v>
       </c>
-      <c r="E465" s="43" t="s">
+      <c r="D465" s="43" t="s">
         <v>62</v>
       </c>
     </row>

--- a/Crescimento vegetal.xlsx
+++ b/Crescimento vegetal.xlsx
@@ -245,7 +245,7 @@
     <t xml:space="preserve">id</t>
   </si>
   <si>
-    <t xml:space="preserve">colonyLength</t>
+    <t xml:space="preserve">area</t>
   </si>
   <si>
     <t xml:space="preserve">rootLength</t>
@@ -764,8 +764,8 @@
   </sheetPr>
   <dimension ref="A1:M466"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A453" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6741,9 +6741,9 @@
   <dimension ref="A1:E466"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
